--- a/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>WMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,209 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>141671000</v>
+      </c>
+      <c r="E8" s="3">
         <v>127991000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>130377000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>123925000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>138793000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>124894000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>128028000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>122690000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>136267000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>123179000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>123355000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>117542000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>130936000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>118179000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>107748000</v>
+      </c>
+      <c r="E9" s="3">
         <v>95900000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>97923000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>93034000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>104907000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>93116000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>95571000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>91707000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>102640000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>91547000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>91521000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>87688000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>97743000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>87484000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>33923000</v>
+      </c>
+      <c r="E10" s="3">
         <v>32091000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>32454000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30891000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>33886000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31778000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32457000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>30983000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33627000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31632000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31834000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29854000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33193000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>30695000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +884,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -916,8 +929,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,13 +976,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -974,29 +993,29 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>4800000</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1004000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1344000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>788000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1004,8 +1023,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1070,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1088,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>136349000</v>
+      </c>
+      <c r="E17" s="3">
         <v>123273000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>124794000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>118980000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>132726000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>119908000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>127078000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>117536000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>132804000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>119759000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>118174000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>112305000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>124731000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>113060000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5322000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4718000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5583000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4945000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6067000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4986000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>950000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5154000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3463000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3420000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5181000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5237000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6205000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5119000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,228 +1201,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1003000</v>
+      </c>
+      <c r="E20" s="3">
         <v>288000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-29000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>885000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>266000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1817000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1802000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>37000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>42000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>38000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>35000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>30000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9153000</v>
+      </c>
+      <c r="E21" s="3">
         <v>7729000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8276000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8544000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9064000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5784000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3606000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6030000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6202000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6120000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7837000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7823000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8941000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>652000</v>
+      </c>
+      <c r="E22" s="3">
         <v>633000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>641000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>673000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>669000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>593000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>554000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>530000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>536000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>583000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>613000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>598000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>585000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>609000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5673000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4373000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4913000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5157000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5664000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2576000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>398000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2822000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2964000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2879000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4606000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4674000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5650000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4534000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1379000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1052000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1233000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1251000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1343000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>806000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1002000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>688000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>801000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>975000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1502000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1522000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1664000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1332000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1481,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4294000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3321000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3680000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3906000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4321000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1770000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-604000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2134000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2163000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1904000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3104000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3152000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3986000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4141000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3288000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3610000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3842000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4195000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1663000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-738000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1992000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1975000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1749000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2899000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3039000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3757000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,13 +1622,16 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1579,23 +1639,23 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>-508000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>47000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-123000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>142000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>200000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1603,14 +1663,17 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1716,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1763,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1003000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-288000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>29000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-885000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-266000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1817000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1802000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-37000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-42000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-38000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-35000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-30000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4141000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3288000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3610000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3842000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3687000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1710000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-861000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2134000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2175000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1749000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2899000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3039000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3757000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1904,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4141000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3288000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3610000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3842000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3687000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1710000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-861000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2134000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2175000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1749000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2899000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3039000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3757000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2024,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,52 +2043,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9465000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8606000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9283000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9255000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7722000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9174000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15840000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7885000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6456000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7026000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6469000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6545000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6602000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5939000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2046,184 +2135,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6284000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5612000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5382000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5342000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6283000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5785000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5002000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4568000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5614000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5865000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5395000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5252000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5835000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5344000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>44435000</v>
+      </c>
+      <c r="E44" s="3">
         <v>51546000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>44134000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>44751000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>44269000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>50380000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>41985000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>43303000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>43783000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>50147000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>43442000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>43361000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>43046000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>49822000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1622000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2148000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2572000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2391000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3623000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4107000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3543000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3486000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3811000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2330000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1457000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2178000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2206000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>61806000</v>
+      </c>
+      <c r="E46" s="3">
         <v>67912000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>61371000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>61739000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>61897000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>69446000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>66370000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>59242000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>59664000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>65368000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>56763000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>57336000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>57689000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>63401000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2266,96 +2370,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>127049000</v>
+      </c>
+      <c r="E48" s="3">
         <v>125425000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>125862000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>125241000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>111395000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>111349000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>111017000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>114800000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>114818000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>115299000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>115353000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>114169000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>114178000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>115088000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>31073000</v>
+      </c>
+      <c r="E49" s="3">
         <v>30716000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>31454000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>31416000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>31181000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>31044000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17840000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18850000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18242000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18204000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18037000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17575000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17037000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17792000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2511,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2558,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16567000</v>
+      </c>
+      <c r="E52" s="3">
         <v>15777000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16174000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16148000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14822000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14744000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10835000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12035000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11798000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10543000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11413000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10638000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9921000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10576000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2652,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>236495000</v>
+      </c>
+      <c r="E54" s="3">
         <v>239830000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>234861000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>234544000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>219295000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>226583000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>206062000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>204927000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>204522000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>209414000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>201566000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>199718000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>198825000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>206857000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2720,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,272 +2739,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>46973000</v>
+      </c>
+      <c r="E57" s="3">
         <v>49750000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45871000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45110000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>47060000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49729000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>43128000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>44612000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46092000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>47587000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>42389000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>41367000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>41433000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>42990000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6448000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9487000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8516000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6727000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7830000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11095000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2228000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10038000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9662000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9021000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7174000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6472000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3920000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7897000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24369000</v>
+      </c>
+      <c r="E59" s="3">
         <v>24547000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25896000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28051000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22587000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24927000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26327000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>26107000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22767000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23827000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23248000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>26354000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21575000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23243000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>77790000</v>
+      </c>
+      <c r="E60" s="3">
         <v>83784000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>80283000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>79888000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>77477000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>85751000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>71683000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>80757000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>78521000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>80435000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>72811000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>74193000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>66928000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>74130000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>48021000</v>
+      </c>
+      <c r="E61" s="3">
         <v>45150000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>44612000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>47441000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>46340000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>46161000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>47732000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>32330000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32784000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36483000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36025000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>40025000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>42018000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>42108000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29132000</v>
+      </c>
+      <c r="E62" s="3">
         <v>32589000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>32835000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>32305000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15844000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15202000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12835000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13516000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12395000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13590000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13684000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9386000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9344000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10144000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3066,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3113,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3160,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>161826000</v>
+      </c>
+      <c r="E66" s="3">
         <v>168181000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>164534000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>166339000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>146799000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>154587000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>134877000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>129375000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>126653000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>133269000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>125177000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>126027000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>121027000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>129164000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3228,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3273,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3320,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3367,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3414,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>83943000</v>
+      </c>
+      <c r="E72" s="3">
         <v>80656000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>78432000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>76276000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>80785000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>80287000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>80810000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>82982000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>85107000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>84480000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>84838000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>84120000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>89354000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>87636000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3508,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3555,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3602,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>74669000</v>
+      </c>
+      <c r="E76" s="3">
         <v>71649000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>70327000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>68205000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>72496000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>71996000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>71185000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>75552000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>77869000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>76145000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>76389000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>73691000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>77798000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>77693000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3696,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4141000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3288000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3610000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3842000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3687000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1710000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-861000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2134000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2175000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1749000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2899000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3039000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3757000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +3816,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2828000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2723000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2722000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2714000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2731000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2615000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2654000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2678000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2702000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2658000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2618000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2551000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2706000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +3908,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +3955,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4002,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4049,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4096,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10716000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3354000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7622000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3563000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10445000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6213000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5934000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5161000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11277000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5700000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5975000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5385000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11892000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4850000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4164,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2940000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2894000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2205000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3330000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2732000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2464000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1818000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3143000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2485000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2433000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3980000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6320000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10299000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4256,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4303,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2843000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2461000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2689000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1135000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3482000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16126000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2746000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1682000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3206000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1681000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1861000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2937000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6634000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4371,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1503000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1509000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1530000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1533000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1510000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1526000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1539000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1549000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4463,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4510,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4557,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7086000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4685000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-846000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8458000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3441000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4966000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2486000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8459000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2785000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4659000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3972000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7794000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E101" s="3">
         <v>100000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-220000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-46000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>47000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-186000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-442000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>143000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>101000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-46000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>293000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>139000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-227000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>884000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-689000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1536000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1448000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6658000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7712000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1136000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-287000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>557000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-72000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-309000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>928000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1737000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>WMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,221 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>134622000</v>
+      </c>
+      <c r="E8" s="3">
         <v>141671000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>127991000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>130377000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>123925000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>138793000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>124894000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>128028000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>122690000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>136267000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>123179000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>123355000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>117542000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>130936000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>118179000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>102026000</v>
+      </c>
+      <c r="E9" s="3">
         <v>107748000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>95900000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>97923000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>93034000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>104907000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>93116000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>95571000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>91707000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>102640000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>91547000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>91521000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>87688000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>97743000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>87484000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>32596000</v>
+      </c>
+      <c r="E10" s="3">
         <v>33923000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>32091000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32454000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>30891000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>33886000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31778000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32457000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>30983000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33627000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31632000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31834000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>29854000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33193000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>30695000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,8 +897,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,8 +945,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -979,16 +995,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -996,29 +1015,29 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>4800000</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1004000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1344000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>788000</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1026,8 +1045,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1073,8 +1095,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1089,102 +1114,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>129398000</v>
+      </c>
+      <c r="E17" s="3">
         <v>136349000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>123273000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>124794000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>118980000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>132726000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>119908000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>127078000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>117536000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>132804000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>119759000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>118174000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>112305000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>124731000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>113060000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5224000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5322000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4718000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5583000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4945000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6067000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4986000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>950000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5154000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3463000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3420000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5181000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5237000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6205000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5119000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1202,243 +1234,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>764000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1003000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>288000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-29000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>885000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>266000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1817000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1802000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>37000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>42000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>38000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>35000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>30000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8779000</v>
+      </c>
+      <c r="E21" s="3">
         <v>9153000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7729000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8276000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8544000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9064000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5784000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3606000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6030000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6202000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6120000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7837000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7823000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8941000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>592000</v>
+      </c>
+      <c r="E22" s="3">
         <v>652000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>633000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>641000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>673000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>669000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>593000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>554000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>530000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>536000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>583000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>613000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>598000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>585000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>609000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5396000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5673000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4373000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4913000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5157000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5664000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2576000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>398000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2822000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2964000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2879000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4606000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4674000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5650000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4534000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1322000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1379000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1052000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1233000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1251000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1343000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>806000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1002000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>688000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>801000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>975000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1502000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1522000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1664000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1332000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1484,102 +1532,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4074000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4294000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3321000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3680000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3906000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4321000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1770000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-604000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2134000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2163000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1904000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3104000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3152000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3986000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3990000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4141000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3288000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3610000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3842000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4195000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1663000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-738000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1992000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1975000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1749000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2899000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3039000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3757000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1625,16 +1682,19 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1642,23 +1702,23 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-508000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>47000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-123000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>142000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>200000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1666,14 +1726,17 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1719,8 +1782,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1766,102 +1832,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-764000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1003000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-288000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>29000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-885000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-266000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1817000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1802000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-37000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-42000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-38000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-35000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3990000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4141000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3288000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3610000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3842000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3687000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1710000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-861000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2134000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2175000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1749000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2899000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3039000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3757000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1907,107 +1982,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3990000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4141000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3288000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3610000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3842000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3687000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1710000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-861000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2134000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2175000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1749000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2899000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3039000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3757000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,8 +2109,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2044,55 +2129,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14930000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9465000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8606000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9283000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9255000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7722000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9174000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15840000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7885000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6456000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7026000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6469000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6545000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6602000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5939000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2138,196 +2227,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5029000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6284000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5612000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5382000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5342000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6283000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5785000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5002000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4568000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5614000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5865000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5395000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5252000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5835000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5344000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>41217000</v>
+      </c>
+      <c r="E44" s="3">
         <v>44435000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>51546000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>44134000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>44751000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>44269000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>50380000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>41985000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>43303000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>43783000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>50147000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>43442000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>43361000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>43046000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>49822000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2152000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1622000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2148000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2572000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2391000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3623000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4107000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3543000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3486000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3811000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2330000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1457000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2178000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2206000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>63328000</v>
+      </c>
+      <c r="E46" s="3">
         <v>61806000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>67912000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>61371000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>61739000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>61897000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>69446000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>66370000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>59242000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>59664000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>65368000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>56763000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>57336000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>57689000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>63401000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2373,102 +2477,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>123378000</v>
+      </c>
+      <c r="E48" s="3">
         <v>127049000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>125425000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>125862000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>125241000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>111395000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>111349000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>111017000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>114800000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>114818000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>115299000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>115353000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>114169000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>114178000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>115088000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29416000</v>
+      </c>
+      <c r="E49" s="3">
         <v>31073000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>30716000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>31454000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>31416000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>31181000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>31044000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17840000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18850000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18242000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18204000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18037000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17575000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17037000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17792000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2514,8 +2627,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2561,55 +2677,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16770000</v>
+      </c>
+      <c r="E52" s="3">
         <v>16567000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15777000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16174000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16148000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14822000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14744000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10835000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12035000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11798000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10543000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11413000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10638000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9921000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10576000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2655,55 +2777,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>232892000</v>
+      </c>
+      <c r="E54" s="3">
         <v>236495000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>239830000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>234861000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>234544000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>219295000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>226583000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>206062000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>204927000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>204522000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>209414000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>201566000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>199718000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>198825000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>206857000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2721,8 +2849,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2740,290 +2869,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44096000</v>
+      </c>
+      <c r="E57" s="3">
         <v>46973000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>49750000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45871000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45110000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>47060000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49729000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>43128000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44612000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>46092000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>47587000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>42389000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>41367000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>41433000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>42990000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10554000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6448000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9487000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8516000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6727000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7830000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11095000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2228000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10038000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9662000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9021000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7174000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6472000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3920000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7897000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27997000</v>
+      </c>
+      <c r="E59" s="3">
         <v>24369000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24547000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25896000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28051000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22587000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24927000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>26327000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26107000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22767000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23827000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23248000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>26354000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21575000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23243000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>82647000</v>
+      </c>
+      <c r="E60" s="3">
         <v>77790000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>83784000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>80283000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>79888000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>77477000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>85751000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>71683000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>80757000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>78521000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>80435000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>72811000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>74193000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>66928000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>74130000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>47480000</v>
+      </c>
+      <c r="E61" s="3">
         <v>48021000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>45150000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>44612000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>47441000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>46340000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>46161000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>47732000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32330000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32784000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36483000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36025000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>40025000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>42018000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>42108000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28655000</v>
+      </c>
+      <c r="E62" s="3">
         <v>29132000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>32589000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>32835000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>32305000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15844000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15202000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12835000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13516000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12395000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13590000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13684000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9386000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9344000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10144000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3069,8 +3217,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3116,8 +3267,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3163,55 +3317,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>164652000</v>
+      </c>
+      <c r="E66" s="3">
         <v>161826000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>168181000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>164534000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>166339000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>146799000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>154587000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>134877000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>129375000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>126653000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>133269000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>125177000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>126027000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>121027000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>129164000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3229,8 +3389,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3276,8 +3437,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3323,8 +3487,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3370,8 +3537,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3417,55 +3587,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>81141000</v>
+      </c>
+      <c r="E72" s="3">
         <v>83943000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>80656000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>78432000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>76276000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>80785000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>80287000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>80810000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>82982000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>85107000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>84480000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>84838000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>84120000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>89354000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>87636000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3511,8 +3687,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3558,8 +3737,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3605,55 +3787,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>68240000</v>
+      </c>
+      <c r="E76" s="3">
         <v>74669000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>71649000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>70327000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>68205000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>72496000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>71996000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>71185000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>75552000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>77869000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>76145000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>76389000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>73691000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>77798000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>77693000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3699,107 +3887,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3990000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4141000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3288000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3610000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3842000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3687000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1710000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-861000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2134000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2175000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1749000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2899000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3039000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3757000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3817,55 +4014,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2791000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2828000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2723000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2722000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2714000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2731000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2615000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2654000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2678000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2702000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2658000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2618000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2551000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2706000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3911,8 +4112,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3958,8 +4162,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4005,8 +4212,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4052,8 +4262,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4099,55 +4312,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7017000</v>
+      </c>
+      <c r="E89" s="3">
         <v>10716000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3354000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7622000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3563000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10445000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6213000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5934000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5161000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11277000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5700000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5975000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5385000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11892000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4850000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4165,55 +4384,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1752000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2940000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2894000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2205000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3330000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2732000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2464000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1818000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3143000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2485000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2433000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3980000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6320000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10299000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4259,8 +4482,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4306,55 +4532,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1696000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2843000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2461000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2689000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1135000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3482000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16126000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2746000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1682000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3206000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1681000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1861000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2937000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6634000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4372,55 +4604,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1529000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1503000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1509000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1530000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1533000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1510000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1526000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1539000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1549000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4466,8 +4702,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4513,8 +4752,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4560,145 +4802,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7086000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4685000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-846000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8458000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3441000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4966000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2486000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8459000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2785000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4659000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3972000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7794000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-415000</v>
+      </c>
+      <c r="E101" s="3">
         <v>97000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-220000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-46000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>47000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-186000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-442000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>143000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>101000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-46000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>293000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>139000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-227000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5471000</v>
+      </c>
+      <c r="E102" s="3">
         <v>884000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-689000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1536000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1448000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6658000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7712000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1136000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-287000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>557000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-72000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-309000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>928000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1737000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>WMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>137742000</v>
+      </c>
+      <c r="E8" s="3">
         <v>134622000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>141671000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>127991000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>130377000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>123925000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>138793000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>124894000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>128028000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>122690000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>136267000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>123179000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>123355000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>117542000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>130936000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>118179000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>102689000</v>
+      </c>
+      <c r="E9" s="3">
         <v>102026000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>107748000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>95900000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>97923000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>93034000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>104907000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>93116000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>95571000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>91707000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>102640000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>91547000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>91521000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>87688000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>97743000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>87484000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>35053000</v>
+      </c>
+      <c r="E10" s="3">
         <v>32596000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33923000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32091000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>32454000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>30891000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>33886000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31778000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32457000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>30983000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33627000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31632000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>31834000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29854000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33193000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>30695000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,19 +1014,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>1900000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>900000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1018,29 +1037,29 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>4800000</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1004000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1344000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>788000</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1048,8 +1067,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1120,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>131683000</v>
+      </c>
+      <c r="E17" s="3">
         <v>129398000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>136349000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>123273000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>124794000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>118980000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>132726000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>119908000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>127078000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>117536000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>132804000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>119759000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>118174000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>112305000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>124731000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>113060000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6059000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5224000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5322000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4718000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5583000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4945000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6067000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4986000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>950000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5154000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3463000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3420000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5181000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5237000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6205000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5119000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,258 +1267,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3245000</v>
+      </c>
+      <c r="E20" s="3">
         <v>764000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1003000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>288000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-29000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>885000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>266000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1817000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1802000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>37000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>42000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>38000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>35000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>30000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12075000</v>
+      </c>
+      <c r="E21" s="3">
         <v>8779000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9153000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7729000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8276000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8544000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9064000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5784000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3606000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6030000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6202000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6120000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7837000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7823000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8941000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>658000</v>
+      </c>
+      <c r="E22" s="3">
         <v>592000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>652000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>633000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>641000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>673000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>669000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>593000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>554000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>530000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>536000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>583000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>613000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>598000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>585000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>609000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8646000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5396000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5673000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4373000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4913000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5157000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5664000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2576000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>398000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2822000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2964000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2879000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4606000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4674000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5650000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4534000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2207000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1322000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1379000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1052000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1233000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1251000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1343000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>806000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1002000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>688000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>801000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>975000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1502000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1522000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1664000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1332000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6439000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4074000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4294000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3321000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3680000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3906000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4321000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1770000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-604000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2134000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2163000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1904000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3104000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3152000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3986000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6476000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3990000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4141000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3288000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3610000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3842000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4195000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1663000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-738000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1992000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1975000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1749000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2899000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3039000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3757000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,19 +1742,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1705,23 +1765,23 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-508000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>47000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-123000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>142000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>200000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1729,14 +1789,17 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3245000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-764000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1003000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-288000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>29000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-885000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-266000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1817000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1802000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-37000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-42000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-38000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-30000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6476000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3990000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4141000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3288000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3610000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3842000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3687000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1710000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-861000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2134000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2175000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1749000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2899000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3039000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3757000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6476000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3990000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4141000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3288000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3610000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3842000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3687000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1710000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-861000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2134000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2175000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1749000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2899000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3039000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3757000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,58 +2215,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16906000</v>
+      </c>
+      <c r="E41" s="3">
         <v>14930000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9465000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8606000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9283000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9255000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7722000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9174000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15840000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7885000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6456000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7026000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6469000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6545000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6602000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5939000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2230,208 +2319,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5029000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6284000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5612000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5382000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5342000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6283000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5785000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5002000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4568000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5614000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5865000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5395000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5252000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5835000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5344000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>41084000</v>
+      </c>
+      <c r="E44" s="3">
         <v>41217000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>44435000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>51546000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>44134000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>44751000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>44269000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>50380000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>41985000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>43303000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>43783000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>50147000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>43442000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>43361000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>43046000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>49822000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1895000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2152000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1622000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2148000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2572000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2391000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3623000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4107000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3543000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3486000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3811000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2330000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1457000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2178000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2206000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>64996000</v>
+      </c>
+      <c r="E46" s="3">
         <v>63328000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>61806000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>67912000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>61371000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>61739000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>61897000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>69446000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>66370000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>59242000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>59664000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>65368000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>56763000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>57336000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>57689000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>63401000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2480,108 +2584,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>122894000</v>
+      </c>
+      <c r="E48" s="3">
         <v>123378000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>127049000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>125425000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>125862000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>125241000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>111395000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>111349000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>111017000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>114800000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>114818000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>115299000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>115353000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>114169000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>114178000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>115088000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29542000</v>
+      </c>
+      <c r="E49" s="3">
         <v>29416000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>31073000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>30716000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>31454000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>31416000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>31181000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>31044000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17840000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18850000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18242000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18204000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18037000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17575000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17037000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>17792000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19950000</v>
+      </c>
+      <c r="E52" s="3">
         <v>16770000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16567000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15777000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16174000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16148000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14822000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14744000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10835000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12035000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11798000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10543000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11413000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10638000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9921000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10576000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>237382000</v>
+      </c>
+      <c r="E54" s="3">
         <v>232892000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>236495000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>239830000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>234861000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>234544000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>219295000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>226583000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>206062000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>204927000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>204522000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>209414000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>201566000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>199718000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>198825000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>206857000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,308 +2999,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>46326000</v>
+      </c>
+      <c r="E57" s="3">
         <v>44096000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>46973000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>49750000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45871000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45110000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>47060000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49729000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43128000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44612000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>46092000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>47587000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>42389000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>41367000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>41433000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>42990000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6459000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10554000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6448000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9487000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8516000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6727000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7830000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11095000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2228000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10038000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9662000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9021000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7174000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6472000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3920000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7897000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29172000</v>
+      </c>
+      <c r="E59" s="3">
         <v>27997000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24369000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24547000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>25896000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28051000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22587000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24927000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26327000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>26107000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22767000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23827000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23248000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>26354000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21575000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>23243000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>81957000</v>
+      </c>
+      <c r="E60" s="3">
         <v>82647000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>77790000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>83784000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>80283000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>79888000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>77477000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>85751000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71683000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>80757000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>78521000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>80435000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>72811000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>74193000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>66928000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>74130000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45632000</v>
+      </c>
+      <c r="E61" s="3">
         <v>47480000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>48021000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>45150000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>44612000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>47441000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>46340000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>46161000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>47732000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32330000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32784000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36483000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>36025000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>40025000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>42018000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>42108000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28596000</v>
+      </c>
+      <c r="E62" s="3">
         <v>28655000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29132000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>32589000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>32835000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>32305000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15844000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15202000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12835000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13516000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12395000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13590000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13684000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9386000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9344000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10144000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>162072000</v>
+      </c>
+      <c r="E66" s="3">
         <v>164652000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>161826000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>168181000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>164534000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>166339000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>146799000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>154587000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>134877000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>129375000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>126653000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>133269000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>125177000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>126027000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>121027000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>129164000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>87614000</v>
+      </c>
+      <c r="E72" s="3">
         <v>81141000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>83943000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>80656000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>78432000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>76276000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>80785000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>80287000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>80810000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>82982000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>85107000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>84480000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>84838000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>84120000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>89354000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>87636000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>75310000</v>
+      </c>
+      <c r="E76" s="3">
         <v>68240000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>74669000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>71649000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>70327000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>68205000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>72496000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>71996000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>71185000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>75552000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>77869000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>76145000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>76389000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>73691000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>77798000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>77693000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6476000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3990000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4141000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3288000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3610000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3842000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3687000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1710000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-861000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2134000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2175000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1749000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2899000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3039000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3757000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2791000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2828000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2723000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2722000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2714000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2731000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2615000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2654000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2678000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2702000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2658000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2618000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2551000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2706000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11939000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7017000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10716000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3354000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7622000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3563000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10445000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6213000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5934000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5161000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11277000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5700000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5975000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5385000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11892000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4850000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1817000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1752000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2940000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2894000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2205000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3330000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2732000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2464000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1818000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3143000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2485000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2433000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3980000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6320000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10299000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1938000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1696000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2843000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2461000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2689000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1135000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3482000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16126000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2746000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1682000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3206000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1681000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1861000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2937000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6634000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,8 +4837,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4614,49 +4847,52 @@
         <v>-1529000</v>
       </c>
       <c r="E96" s="3">
+        <v>-1529000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1503000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1509000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1530000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1533000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1510000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1526000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1539000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1549000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8379000</v>
+      </c>
+      <c r="E100" s="3">
         <v>565000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7086000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4685000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-846000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8458000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3441000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4966000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2486000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8459000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2785000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4659000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3972000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7794000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-415000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>97000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-220000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-46000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>47000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-186000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-442000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>143000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>101000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-46000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>293000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>139000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-227000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1968000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5471000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>884000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-689000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>28000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1536000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1448000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6658000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7712000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1136000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-287000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>557000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-72000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-309000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>928000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1737000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>WMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,257 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>152079000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>134708000</v>
+      </c>
+      <c r="F8" s="3">
         <v>137742000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>134622000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>141671000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>127991000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>130377000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>123925000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>138793000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>124894000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>128028000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>122690000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>136267000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>123179000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>123355000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>117542000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>130936000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>118179000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>115261000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100339000</v>
+      </c>
+      <c r="F9" s="3">
         <v>102689000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>102026000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>107748000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>95900000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>97923000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>93034000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>104907000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>93116000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>95571000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>91707000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>102640000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>91547000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>91521000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>87688000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>97743000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>87484000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>36818000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>34369000</v>
+      </c>
+      <c r="F10" s="3">
         <v>35053000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>32596000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>33923000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>32091000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>32454000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>30891000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>33886000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>31778000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>32457000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>30983000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>33627000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>31632000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>31834000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>29854000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>33193000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>30695000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +935,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +990,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,61 +1049,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8400000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1600000</v>
+      </c>
+      <c r="F14" s="3">
         <v>1900000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>900000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>4800000</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>1004000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1344000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>788000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1123,8 +1167,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1191,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>153992000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>129930000</v>
+      </c>
+      <c r="F17" s="3">
         <v>131683000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>129398000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>136349000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>123273000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>124794000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>118980000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>132726000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>119908000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>127078000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>117536000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>132804000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>119759000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>118174000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>112305000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>124731000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>113060000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1913000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4778000</v>
+      </c>
+      <c r="F18" s="3">
         <v>6059000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>5224000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>5322000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>4718000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>5583000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>4945000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6067000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4986000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>950000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>5154000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3463000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3420000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>5181000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>5237000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>6205000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>5119000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,273 +1332,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1844000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2878000</v>
+      </c>
+      <c r="F20" s="3">
         <v>3245000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>764000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1003000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>288000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-29000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>885000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>266000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1817000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1802000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>37000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>42000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>38000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>35000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>30000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2750000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10427000</v>
+      </c>
+      <c r="F21" s="3">
         <v>12075000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>8779000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>9153000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>7729000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>8276000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>8544000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>9064000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>5784000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3606000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>6030000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>6202000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>6120000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>7837000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>7823000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>8941000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>524000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>541000</v>
+      </c>
+      <c r="F22" s="3">
         <v>658000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>592000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>652000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>633000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>641000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>673000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>669000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>593000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>554000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>530000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>536000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>583000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>613000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>598000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>585000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>609000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-593000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7115000</v>
+      </c>
+      <c r="F23" s="3">
         <v>8646000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>5396000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>5673000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4373000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>4913000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>5157000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5664000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2576000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>398000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2822000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2964000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2879000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4606000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>4674000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>5650000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>4534000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1415000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1914000</v>
+      </c>
+      <c r="F24" s="3">
         <v>2207000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1322000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1379000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1052000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1233000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1251000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1343000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>806000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1002000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>688000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>801000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>975000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1502000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1522000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1664000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1332000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1682,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2008000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5201000</v>
+      </c>
+      <c r="F26" s="3">
         <v>6439000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4074000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4294000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3321000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3680000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3906000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4321000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1770000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-604000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2134000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2163000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1904000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3104000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>3152000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>3986000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2091000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5135000</v>
+      </c>
+      <c r="F27" s="3">
         <v>6476000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3990000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>4141000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3288000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3610000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3842000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4195000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1663000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-738000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1992000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1975000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1749000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2899000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3039000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>3757000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1859,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1756,50 +1876,56 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-508000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>47000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-123000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>142000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>200000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1977,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +2036,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1844000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2878000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3245000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-764000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1003000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-288000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>29000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-885000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-266000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1817000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1802000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-37000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-42000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-35000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-30000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2091000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5135000</v>
+      </c>
+      <c r="F33" s="3">
         <v>6476000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3990000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4141000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3288000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3610000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3842000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3687000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1710000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-861000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2134000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2175000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1749000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2899000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3039000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>3757000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2213,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2091000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5135000</v>
+      </c>
+      <c r="F35" s="3">
         <v>6476000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3990000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4141000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3288000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3610000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3842000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3687000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1710000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-861000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2134000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2175000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1749000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2899000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3039000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>3757000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2363,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,61 +2386,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17741000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>14325000</v>
+      </c>
+      <c r="F41" s="3">
         <v>16906000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>14930000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>9465000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8606000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>9283000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>9255000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7722000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9174000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>15840000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7885000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6456000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7026000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6469000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6545000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6602000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5939000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2322,220 +2500,250 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6516000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5770000</v>
+      </c>
+      <c r="F43" s="3">
         <v>5111000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5029000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>6284000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>5612000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>5382000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>5342000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>6283000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>5785000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5002000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>4568000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>5614000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>5865000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>5395000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>5252000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>5835000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>5344000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>44949000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>51842000</v>
+      </c>
+      <c r="F44" s="3">
         <v>41084000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>41217000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>44435000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>51546000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>44134000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>44751000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>44269000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>50380000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>41985000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>43303000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>43783000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>50147000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>43442000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>43361000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>43046000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>49822000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20861000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1665000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1895000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2152000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1622000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2148000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2572000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2391000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3623000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>4107000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3543000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3486000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3811000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2330000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1457000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2178000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2206000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>90067000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>73602000</v>
+      </c>
+      <c r="F46" s="3">
         <v>64996000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>63328000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>61806000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>67912000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>61371000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>61739000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>61897000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>69446000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>66370000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>59242000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>59664000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>65368000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>56763000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>57336000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>57689000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>63401000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2587,114 +2795,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>109848000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>124289000</v>
+      </c>
+      <c r="F48" s="3">
         <v>122894000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>123378000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>127049000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>125425000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>125862000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>125241000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>111395000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>111349000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>111017000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>114800000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>114818000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>115299000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>115353000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>114169000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>114178000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>115088000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28983000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>30236000</v>
+      </c>
+      <c r="F49" s="3">
         <v>29542000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>29416000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>31073000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>30716000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>31454000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>31416000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>31181000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>31044000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>17840000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>18850000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>18242000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>18204000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>18037000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>17575000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>17037000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>17792000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2972,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +3031,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23598000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>22736000</v>
+      </c>
+      <c r="F52" s="3">
         <v>19950000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>16770000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>16567000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>15777000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>16174000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>16148000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>14822000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>14744000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>10835000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>12035000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>11798000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>10543000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>11413000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>10638000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>9921000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>10576000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3149,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>252496000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>250863000</v>
+      </c>
+      <c r="F54" s="3">
         <v>237382000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>232892000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>236495000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>239830000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>234861000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>234544000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>219295000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>226583000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>206062000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>204927000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>204522000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>209414000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>201566000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>199718000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>198825000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>206857000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3235,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,326 +3258,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>49141000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>54152000</v>
+      </c>
+      <c r="F57" s="3">
         <v>46326000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>44096000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>46973000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>49750000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>45871000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>45110000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>47060000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>49729000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>43128000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>44612000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>46092000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>47587000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>42389000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>41367000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>41433000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>42990000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3830000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5172000</v>
+      </c>
+      <c r="F58" s="3">
         <v>6459000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>10554000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6448000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>9487000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>8516000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6727000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7830000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>11095000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2228000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>10038000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>9662000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>9021000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>7174000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>6472000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3920000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>7897000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39674000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>28797000</v>
+      </c>
+      <c r="F59" s="3">
         <v>29172000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>27997000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>24369000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>24547000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>25896000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>28051000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>22587000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>24927000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>26327000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>26107000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>22767000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>23827000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>23248000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>26354000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>21575000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>23243000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>92645000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>88121000</v>
+      </c>
+      <c r="F60" s="3">
         <v>81957000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>82647000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>77790000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>83784000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>80283000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>79888000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>77477000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>85751000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>71683000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>80757000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>78521000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>80435000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>72811000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>74193000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>66928000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>74130000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45041000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>45599000</v>
+      </c>
+      <c r="F61" s="3">
         <v>45632000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>47480000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>48021000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>45150000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>44612000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>47441000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>46340000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>46161000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>47732000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>32330000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>32784000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>36483000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>36025000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>40025000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>42018000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>42108000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27279000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>29639000</v>
+      </c>
+      <c r="F62" s="3">
         <v>28596000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>28655000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>29132000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>32589000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>32835000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>32305000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>15844000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>15202000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>12835000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>13516000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>12395000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>13590000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>13684000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>9386000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>9344000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>10144000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3667,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3726,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3785,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>171571000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>169432000</v>
+      </c>
+      <c r="F66" s="3">
         <v>162072000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>164652000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>161826000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>168181000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>164534000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>166339000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>146799000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>154587000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>134877000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>129375000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>126653000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>133269000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>125177000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>126027000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>121027000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>129164000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3871,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3926,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3985,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +4044,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +4103,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>88763000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>92279000</v>
+      </c>
+      <c r="F72" s="3">
         <v>87614000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>81141000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>83943000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>80656000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>78432000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>76276000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>80785000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>80287000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>80810000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>82982000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>85107000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>84480000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>84838000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>84120000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>89354000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>87636000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4221,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4280,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4339,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>80925000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>81431000</v>
+      </c>
+      <c r="F76" s="3">
         <v>75310000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>68240000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>74669000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>71649000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>70327000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>68205000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>72496000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>71996000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>71185000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>75552000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>77869000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>76145000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>76389000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>73691000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>77798000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>77693000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4457,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2091000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5135000</v>
+      </c>
+      <c r="F81" s="3">
         <v>6476000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3990000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4141000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3288000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3610000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3842000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3687000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1710000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-861000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2134000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2175000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1749000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2899000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3039000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>3757000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4607,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2819000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2771000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="G83" s="3">
         <v>2791000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2828000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>2723000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2722000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2714000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2731000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2615000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2654000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2678000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2702000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2658000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2618000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2551000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>2706000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4721,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4780,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4839,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4898,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4957,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13194000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3924000</v>
+      </c>
+      <c r="F89" s="3">
         <v>11939000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>7017000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>10716000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3354000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>7622000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>3563000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>10445000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>6213000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>5934000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>5161000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>11277000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>5700000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>5975000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>5385000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>11892000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>4850000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +5043,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3826000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2869000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1817000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1752000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2940000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2894000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2205000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3330000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2732000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2464000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1818000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3143000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2485000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2433000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3980000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-6320000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-10299000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +5157,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +5216,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3564000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2873000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1938000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1696000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2843000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2461000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2689000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1135000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3482000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-16126000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2746000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1682000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3206000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1681000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1861000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2937000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-6634000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,61 +5302,69 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1534000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1524000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1529000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1529000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1503000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1509000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1530000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1533000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1510000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-1526000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1539000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1549000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1534000</v>
       </c>
       <c r="S96" s="3">
         <v>-1549000</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-1534000</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-1549000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5416,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5475,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5534,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4777000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3526000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-8379000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>565000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-7086000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-4685000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-846000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-8458000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>3441000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4966000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2486000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-8459000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2785000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-4659000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-3972000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-7794000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>405000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="F101" s="3">
         <v>346000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-415000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>97000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-220000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-46000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>47000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-186000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-442000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>143000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>101000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-46000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>293000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>139000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-227000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5258000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2576000</v>
+      </c>
+      <c r="F102" s="3">
         <v>1968000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>5471000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>884000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-689000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>28000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1536000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1448000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-6658000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>7712000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1136000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-287000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>557000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-72000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-309000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>928000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1737000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>WMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>138310000</v>
+      </c>
+      <c r="E8" s="3">
         <v>152079000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>134708000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>137742000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>134622000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>141671000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>127991000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>130377000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>123925000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>138793000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>124894000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>128028000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>122690000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>136267000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>123179000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>123355000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>117542000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>130936000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>118179000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>103272000</v>
+      </c>
+      <c r="E9" s="3">
         <v>115261000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>100339000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>102689000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>102026000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>107748000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>95900000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>97923000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>93034000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>104907000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>93116000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>95571000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>91707000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>102640000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>91547000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>91521000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>87688000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>97743000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>87484000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>35038000</v>
+      </c>
+      <c r="E10" s="3">
         <v>36818000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>34369000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>35053000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>32596000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>33923000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32091000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32454000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>30891000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33886000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31778000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32457000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>30983000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33627000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>31632000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>31834000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>29854000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>33193000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>30695000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,28 +1071,31 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E14" s="3">
         <v>8400000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1600000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1900000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1084,29 +1103,29 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>4800000</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1004000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1344000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>788000</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1114,8 +1133,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,8 +1195,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>131401000</v>
+      </c>
+      <c r="E17" s="3">
         <v>153992000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>129930000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>131683000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>129398000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>136349000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>123273000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>124794000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>118980000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>132726000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>119908000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>127078000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>117536000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>132804000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>119759000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>118174000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>112305000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>124731000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>113060000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6909000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1913000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4778000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6059000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5224000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5322000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4718000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5583000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4945000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6067000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4986000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>950000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5154000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3463000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3420000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5181000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5237000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6205000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5119000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,303 +1366,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2499000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1844000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2878000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3245000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>764000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1003000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>288000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-29000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>885000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>266000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1817000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1802000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>37000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>42000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>38000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>35000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>30000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7071000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2750000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10427000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12075000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8779000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9153000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7729000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8276000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8544000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9064000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5784000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3606000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6030000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6202000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6120000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7837000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7823000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8941000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>566000</v>
+      </c>
+      <c r="E22" s="3">
         <v>524000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>541000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>658000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>592000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>652000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>633000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>641000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>673000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>669000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>593000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>554000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>530000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>536000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>583000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>613000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>598000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>585000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>609000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3844000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-593000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7115000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8646000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5396000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5673000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4373000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4913000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5157000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5664000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2576000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>398000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2822000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2964000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2879000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4606000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4674000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5650000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4534000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1033000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1415000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1914000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2207000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1322000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1379000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1052000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1233000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1251000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1343000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>806000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1002000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>688000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>801000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>975000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1502000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1522000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1664000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1332000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2811000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2008000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5201000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6439000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4074000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4294000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3321000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3680000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3906000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4321000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1770000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-604000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2134000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2163000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1904000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3104000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3152000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3986000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2730000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2091000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5135000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6476000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3990000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4141000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3288000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3610000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3842000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4195000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1663000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-738000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1992000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1975000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1749000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2899000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3039000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3757000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,8 +1922,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1882,11 +1942,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1894,23 +1954,23 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-508000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>47000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-123000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>142000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>200000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1918,14 +1978,17 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2499000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1844000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2878000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3245000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-764000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1003000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-288000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>29000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-885000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-266000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1817000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1802000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-42000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-38000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-35000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-30000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2730000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2091000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5135000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6476000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3990000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4141000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3288000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3610000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3842000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3687000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1710000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-861000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2134000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2175000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1749000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2899000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3039000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3757000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2730000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2091000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5135000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6476000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3990000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4141000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3288000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3610000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3842000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3687000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1710000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-861000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2134000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2175000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1749000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2899000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3039000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3757000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,67 +2473,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22846000</v>
+      </c>
+      <c r="E41" s="3">
         <v>17741000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14325000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16906000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14930000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9465000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8606000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9283000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9255000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7722000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9174000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15840000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7885000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6456000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7026000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6469000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6545000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6602000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5939000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2506,244 +2595,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5797000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6516000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5770000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5111000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5029000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6284000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5612000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5382000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5342000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6283000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5785000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5002000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4568000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5614000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5865000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5395000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5252000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5835000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5344000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>46383000</v>
+      </c>
+      <c r="E44" s="3">
         <v>44949000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>51842000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>41084000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>41217000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>44435000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>51546000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>44134000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>44751000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>44269000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>50380000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>41985000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>43303000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>43783000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>50147000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>43442000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>43361000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>43046000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>49822000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1565000</v>
+      </c>
+      <c r="E45" s="3">
         <v>20861000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1665000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1895000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2152000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1622000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2148000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2572000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2391000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3623000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4107000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3543000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3486000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3811000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2330000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1457000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2178000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2206000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>76591000</v>
+      </c>
+      <c r="E46" s="3">
         <v>90067000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>73602000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>64996000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>63328000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>61806000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>67912000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>61371000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>61739000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>61897000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>69446000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>66370000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>59242000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>59664000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>65368000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>56763000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>57336000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>57689000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>63401000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2801,126 +2905,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>108625000</v>
+      </c>
+      <c r="E48" s="3">
         <v>109848000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>124289000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>122894000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>123378000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>127049000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>125425000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>125862000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>125241000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>111395000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>111349000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>111017000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>114800000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>114818000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>115299000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>115353000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>114169000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>114178000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>115088000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28872000</v>
+      </c>
+      <c r="E49" s="3">
         <v>28983000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>30236000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29542000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29416000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>31073000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>30716000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>31454000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31416000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31181000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31044000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17840000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18850000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18242000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18204000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18037000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>17575000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>17037000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>17792000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22493000</v>
+      </c>
+      <c r="E52" s="3">
         <v>23598000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22736000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19950000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16770000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16567000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15777000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16174000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16148000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14822000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14744000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10835000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12035000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11798000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10543000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11413000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10638000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9921000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10576000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>236581000</v>
+      </c>
+      <c r="E54" s="3">
         <v>252496000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>250863000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>237382000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>232892000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>236495000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>239830000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>234861000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>234544000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>219295000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>226583000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>206062000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>204927000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>204522000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>209414000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>201566000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>199718000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>198825000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>206857000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,362 +3389,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48151000</v>
+      </c>
+      <c r="E57" s="3">
         <v>49141000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>54152000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>46326000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>44096000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>46973000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49750000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45871000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45110000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>47060000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>49729000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>43128000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>44612000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>46092000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>47587000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>42389000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>41367000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>41433000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>42990000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4369000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3830000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5172000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6459000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10554000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6448000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9487000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8516000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6727000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7830000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11095000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2228000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10038000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9662000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9021000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7174000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6472000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3920000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7897000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28321000</v>
+      </c>
+      <c r="E59" s="3">
         <v>39674000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28797000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29172000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27997000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24369000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24547000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25896000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28051000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22587000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24927000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>26327000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>26107000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22767000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23827000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>23248000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>26354000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>21575000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>23243000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>80841000</v>
+      </c>
+      <c r="E60" s="3">
         <v>92645000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>88121000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>81957000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>82647000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>77790000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>83784000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>80283000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>79888000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>77477000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>85751000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>71683000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>80757000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>78521000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>80435000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>72811000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>74193000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>66928000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>74130000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>44075000</v>
+      </c>
+      <c r="E61" s="3">
         <v>45041000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>45599000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>45632000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>47480000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>48021000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>45150000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>44612000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>47441000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>46340000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>46161000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>47732000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>32330000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32784000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>36483000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>36025000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>40025000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>42018000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>42108000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27073000</v>
+      </c>
+      <c r="E62" s="3">
         <v>27279000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29639000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>28596000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>28655000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>29132000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>32589000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>32835000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>32305000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15844000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15202000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12835000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13516000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12395000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13590000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13684000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9386000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9344000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10144000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>158246000</v>
+      </c>
+      <c r="E66" s="3">
         <v>171571000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>169432000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>162072000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>164652000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>161826000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>168181000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>164534000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>166339000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>146799000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>154587000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>134877000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>129375000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>126653000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>133269000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>125177000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>126027000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>121027000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>129164000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>82577000</v>
+      </c>
+      <c r="E72" s="3">
         <v>88763000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>92279000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>87614000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>81141000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>83943000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>80656000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>78432000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>76276000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>80785000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>80287000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>80810000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>82982000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>85107000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>84480000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>84838000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>84120000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>89354000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>87636000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>78335000</v>
+      </c>
+      <c r="E76" s="3">
         <v>80925000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>81431000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>75310000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>68240000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>74669000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>71649000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>70327000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>68205000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>72496000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>71996000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>71185000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>75552000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>77869000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>76145000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>76389000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>73691000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>77798000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>77693000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2730000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2091000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5135000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6476000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3990000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4141000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3288000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3610000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3842000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3687000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1710000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-861000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2134000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2175000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1749000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2899000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3039000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3757000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2661000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2819000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2771000</v>
       </c>
       <c r="F83" s="3">
         <v>2771000</v>
       </c>
       <c r="G83" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="H83" s="3">
         <v>2791000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2828000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2723000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2722000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2714000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2731000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2615000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2654000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2678000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2702000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2658000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2618000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2551000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2706000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4706000</v>
+      </c>
+      <c r="E89" s="3">
         <v>13194000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3924000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11939000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7017000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10716000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3354000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7622000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3563000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10445000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6213000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5934000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5161000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11277000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5700000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5975000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5385000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11892000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4850000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2214000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3826000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2869000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1817000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1752000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2940000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2894000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2205000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3330000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2732000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2464000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1818000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3143000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2485000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2433000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3980000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6320000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10299000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5850000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3564000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2873000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1938000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1696000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2843000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2461000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2689000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1135000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3482000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16126000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2746000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1682000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3206000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1681000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1861000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2937000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6634000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,67 +5536,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1549000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1524000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-1529000</v>
       </c>
       <c r="G96" s="3">
         <v>-1529000</v>
       </c>
       <c r="H96" s="3">
+        <v>-1529000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1503000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1509000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1530000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1533000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1510000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1526000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1539000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1549000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5399000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4777000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3526000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8379000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>565000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7086000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4685000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-846000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8458000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3441000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4966000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2486000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8459000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2785000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4659000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3972000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7794000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E101" s="3">
         <v>405000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-101000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>346000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-415000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>97000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-220000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-46000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>47000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-186000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-442000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>143000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>101000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-46000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>293000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>139000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-227000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5106000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5258000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2576000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1968000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5471000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>884000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-689000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>28000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1536000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1448000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6658000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7712000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1136000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-287000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>557000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-72000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-309000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>928000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1737000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>WMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,281 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>141048000</v>
+      </c>
+      <c r="E8" s="3">
         <v>138310000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>152079000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>134708000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>137742000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>134622000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>141671000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>127991000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>130377000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>123925000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>138793000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>124894000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>128028000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>122690000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>136267000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>123179000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>123355000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>117542000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>130936000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>118179000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>105183000</v>
+      </c>
+      <c r="E9" s="3">
         <v>103272000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>115261000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>100339000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>102689000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>102026000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>107748000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>95900000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>97923000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>93034000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>104907000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>93116000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>95571000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>91707000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>102640000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>91547000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>91521000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>87688000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>97743000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>87484000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>35865000</v>
+      </c>
+      <c r="E10" s="3">
         <v>35038000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36818000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34369000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>35053000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32596000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>33923000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32091000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32454000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>30891000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33886000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31778000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32457000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>30983000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33627000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>31632000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>31834000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>29854000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>33193000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>30695000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,31 +1090,34 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="E14" s="3">
         <v>500000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8400000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1600000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1900000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1106,29 +1125,29 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>4800000</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1004000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1344000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>788000</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1136,8 +1155,11 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,8 +1220,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>133694000</v>
+      </c>
+      <c r="E17" s="3">
         <v>131401000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>153992000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>129930000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>131683000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>129398000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>136349000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>123273000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>124794000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>118980000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>132726000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>119908000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>127078000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>117536000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>132804000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>119759000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>118174000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>112305000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>124731000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>113060000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7354000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6909000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1913000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4778000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6059000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5224000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5322000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4718000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5583000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4945000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6067000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4986000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>950000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5154000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3463000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3420000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5181000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5237000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6205000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5119000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,318 +1399,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-916000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2499000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1844000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2878000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3245000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>764000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1003000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>288000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-29000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>885000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>266000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1817000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1802000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>37000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>42000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>38000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>35000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>30000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9079000</v>
+      </c>
+      <c r="E21" s="3">
         <v>7071000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2750000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10427000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12075000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8779000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9153000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7729000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8276000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8544000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9064000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5784000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3606000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6030000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6202000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6120000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7837000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7823000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8941000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E22" s="3">
         <v>566000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>524000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>541000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>658000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>592000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>652000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>633000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>641000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>673000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>669000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>593000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>554000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>530000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>536000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>583000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>613000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>598000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>585000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>609000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5923000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3844000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-593000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7115000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8646000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5396000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5673000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4373000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4913000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5157000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5664000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2576000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>398000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2822000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2964000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2879000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4606000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4674000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5650000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4534000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1033000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1415000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1914000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2207000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1322000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1379000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1052000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1233000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1251000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1343000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>806000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1002000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>688000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>801000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>975000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1502000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1522000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1664000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1332000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4364000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2811000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2008000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5201000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6439000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4074000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4294000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3321000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3680000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3906000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4321000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1770000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-604000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2134000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2163000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1904000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3104000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3152000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3986000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4276000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2730000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2091000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5135000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6476000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3990000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4141000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3288000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3610000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3842000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4195000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1663000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-738000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1992000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1975000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1749000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2899000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3039000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3757000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,8 +1982,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1945,11 +2005,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1957,23 +2017,23 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-508000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>47000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-123000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>142000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>200000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1981,14 +2041,17 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>916000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2499000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1844000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2878000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3245000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-764000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1003000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-288000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>29000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-885000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-266000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1817000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1802000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-37000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-42000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-38000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-35000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-30000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4276000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2730000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2091000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5135000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6476000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3990000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4141000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3288000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3610000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3842000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3687000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1710000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-861000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2134000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2175000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1749000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2899000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3039000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3757000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4276000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2730000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2091000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5135000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6476000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3990000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4141000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3288000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3610000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3842000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3687000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1710000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-861000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2134000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2175000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1749000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2899000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3039000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3757000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,70 +2559,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22831000</v>
+      </c>
+      <c r="E41" s="3">
         <v>22846000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17741000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14325000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16906000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14930000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9465000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8606000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9283000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9255000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7722000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9174000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15840000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7885000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6456000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7026000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6469000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6545000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6602000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5939000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2598,256 +2687,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6103000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5797000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6516000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5770000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5111000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5029000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6284000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5612000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5382000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5342000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6283000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5785000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5002000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4568000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5614000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5865000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5395000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5252000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5835000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5344000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>47754000</v>
+      </c>
+      <c r="E44" s="3">
         <v>46383000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>44949000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>51842000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>41084000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>41217000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>44435000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>51546000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>44134000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>44751000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>44269000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>50380000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>41985000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>43303000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>43783000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>50147000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>43442000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>43361000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>43046000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>49822000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1555000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1565000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20861000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1665000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1895000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2152000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1622000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2148000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2572000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2391000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3623000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4107000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3543000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3486000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3811000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2330000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1457000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2178000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2206000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>78243000</v>
+      </c>
+      <c r="E46" s="3">
         <v>76591000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>90067000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>73602000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>64996000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>63328000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>61806000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>67912000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>61371000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>61739000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>61897000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>69446000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>66370000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>59242000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>59664000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>65368000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>56763000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>57336000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>57689000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>63401000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2908,132 +3012,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>109598000</v>
+      </c>
+      <c r="E48" s="3">
         <v>108625000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>109848000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>124289000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>122894000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>123378000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>127049000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>125425000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>125862000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>125241000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>111395000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>111349000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>111017000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>114800000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>114818000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>115299000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>115353000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>114169000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>114178000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>115088000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29159000</v>
+      </c>
+      <c r="E49" s="3">
         <v>28872000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>28983000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>30236000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29542000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29416000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>31073000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>30716000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31454000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31416000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31181000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31044000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17840000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18850000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18242000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18204000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>18037000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>17575000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>17037000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>17792000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3272,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21552000</v>
+      </c>
+      <c r="E52" s="3">
         <v>22493000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23598000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22736000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19950000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16770000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16567000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15777000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16174000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16148000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14822000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14744000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10835000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12035000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11798000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10543000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11413000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10638000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9921000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10576000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>238552000</v>
+      </c>
+      <c r="E54" s="3">
         <v>236581000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>252496000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>250863000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>237382000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>232892000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>236495000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>239830000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>234861000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>234544000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>219295000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>226583000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>206062000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>204927000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>204522000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>209414000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>201566000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>199718000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>198825000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>206857000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,380 +3519,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>49601000</v>
+      </c>
+      <c r="E57" s="3">
         <v>48151000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>49141000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54152000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>46326000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>44096000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>46973000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49750000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45871000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45110000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>47060000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>49729000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>43128000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>44612000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>46092000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>47587000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>42389000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>41367000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>41433000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>42990000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2789000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4369000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3830000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5172000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6459000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10554000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6448000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9487000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8516000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6727000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7830000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11095000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2228000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10038000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9662000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9021000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7174000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6472000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3920000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7897000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28732000</v>
+      </c>
+      <c r="E59" s="3">
         <v>28321000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39674000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28797000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29172000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27997000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24369000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24547000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25896000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28051000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22587000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24927000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>26327000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>26107000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22767000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>23827000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>23248000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>26354000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>21575000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>23243000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>81122000</v>
+      </c>
+      <c r="E60" s="3">
         <v>80841000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>92645000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>88121000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>81957000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>82647000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>77790000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>83784000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>80283000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>79888000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>77477000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>85751000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>71683000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>80757000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>78521000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>80435000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>72811000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>74193000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>66928000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>74130000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>43533000</v>
+      </c>
+      <c r="E61" s="3">
         <v>44075000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>45041000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>45599000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>45632000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>47480000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>48021000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>45150000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44612000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>47441000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>46340000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>46161000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>47732000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32330000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32784000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>36483000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>36025000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>40025000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>42018000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>42108000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26770000</v>
+      </c>
+      <c r="E62" s="3">
         <v>27073000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27279000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>29639000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>28596000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>28655000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>29132000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>32589000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>32835000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>32305000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15844000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15202000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12835000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13516000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12395000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13590000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13684000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9386000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9344000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10144000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>158023000</v>
+      </c>
+      <c r="E66" s="3">
         <v>158246000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>171571000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>169432000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>162072000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>164652000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>161826000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>168181000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>164534000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>166339000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>146799000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>154587000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>134877000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>129375000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>126653000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>133269000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>125177000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>126027000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>121027000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>129164000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>84572000</v>
+      </c>
+      <c r="E72" s="3">
         <v>82577000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>88763000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>92279000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>87614000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>81141000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>83943000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>80656000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>78432000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>76276000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>80785000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>80287000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>80810000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>82982000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>85107000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>84480000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>84838000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>84120000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>89354000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>87636000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>80529000</v>
+      </c>
+      <c r="E76" s="3">
         <v>78335000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>80925000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>81431000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>75310000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>68240000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>74669000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>71649000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>70327000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>68205000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>72496000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>71996000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>71185000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>75552000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>77869000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>76145000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>76389000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>73691000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>77798000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>77693000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4276000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2730000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2091000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5135000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6476000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3990000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4141000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3288000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3610000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3842000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3687000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1710000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-861000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2134000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2175000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1749000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2899000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3039000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3757000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2641000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2661000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2819000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2771000</v>
       </c>
       <c r="G83" s="3">
         <v>2771000</v>
       </c>
       <c r="H83" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="I83" s="3">
         <v>2791000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2828000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2723000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2722000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2714000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2731000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2615000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2654000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2678000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2702000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2658000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2618000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2551000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2706000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9565000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4706000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13194000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3924000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11939000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7017000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10716000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3354000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7622000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3563000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10445000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6213000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5934000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5161000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11277000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5700000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5975000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5385000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11892000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4850000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5484,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2805000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2214000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3826000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2869000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1817000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1752000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2940000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2894000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2205000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3330000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2732000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2464000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1818000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3143000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2485000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2433000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3980000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6320000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10299000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3448000</v>
+      </c>
+      <c r="E94" s="3">
         <v>5850000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3564000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2873000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1938000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1696000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2843000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2461000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2689000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1135000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3482000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16126000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2746000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1682000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3206000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1681000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1861000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2937000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6634000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,70 +5769,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1542000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1524000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-1529000</v>
       </c>
       <c r="H96" s="3">
         <v>-1529000</v>
       </c>
       <c r="I96" s="3">
+        <v>-1529000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1503000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1509000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1530000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1533000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1510000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1526000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1539000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1549000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6027,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6160000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5399000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4777000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3526000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8379000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>565000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7086000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4685000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-846000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8458000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3441000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4966000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2486000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8459000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2785000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4659000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3972000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-7794000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-51000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>405000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-101000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>346000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-415000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>97000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-220000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-46000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>47000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-186000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-442000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>143000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>101000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-46000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>293000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>139000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-227000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5106000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5258000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2576000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1968000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5471000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>884000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-689000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>28000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1536000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1448000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6658000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7712000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1136000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-287000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>557000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-72000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-309000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>928000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1737000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>WMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,293 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>140525000</v>
+      </c>
+      <c r="E8" s="3">
         <v>141048000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>138310000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>152079000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>134708000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>137742000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>134622000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>141671000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>127991000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>130377000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>123925000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>138793000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>124894000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>128028000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>122690000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>136267000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>123179000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>123355000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>117542000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>130936000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>118179000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>105023000</v>
+      </c>
+      <c r="E9" s="3">
         <v>105183000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>103272000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>115261000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100339000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>102689000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>102026000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>107748000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>95900000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>97923000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>93034000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>104907000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>93116000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>95571000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>91707000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>102640000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>91547000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>91521000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>87688000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>97743000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>87484000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>35502000</v>
+      </c>
+      <c r="E10" s="3">
         <v>35865000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>35038000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>36818000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34369000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>35053000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32596000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33923000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32091000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32454000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>30891000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33886000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>31778000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32457000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>30983000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33627000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>31632000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>31834000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>29854000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>33193000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>30695000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1041,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,34 +1109,37 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2610000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8400000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1600000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1900000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1128,29 +1147,29 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>4800000</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1004000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1344000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>788000</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1158,8 +1177,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,8 +1245,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>137143000</v>
+      </c>
+      <c r="E17" s="3">
         <v>133694000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>131401000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>153992000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>129930000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>131683000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>129398000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>136349000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>123273000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>124794000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>118980000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>132726000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>119908000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>127078000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>117536000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>132804000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>119759000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>118174000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>112305000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>124731000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>113060000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3382000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7354000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6909000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1913000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4778000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6059000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5224000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5322000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4718000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5583000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4945000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6067000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4986000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>950000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5154000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3463000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3420000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5181000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5237000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6205000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5119000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,333 +1432,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1251000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-916000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2499000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1844000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2878000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3245000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>764000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1003000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>288000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-29000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>885000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>266000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1817000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1802000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>37000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>42000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>38000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>35000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>30000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7283000</v>
+      </c>
+      <c r="E21" s="3">
         <v>9079000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7071000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2750000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10427000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12075000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8779000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9153000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7729000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8276000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8544000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9064000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5784000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3606000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6030000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6202000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6120000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7837000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7823000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8941000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>486000</v>
+      </c>
+      <c r="E22" s="3">
         <v>515000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>566000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>524000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>541000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>658000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>592000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>652000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>633000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>641000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>673000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>669000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>593000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>554000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>530000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>536000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>583000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>613000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>598000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>585000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>609000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4147000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5923000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3844000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-593000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7115000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8646000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5396000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5673000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4373000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4913000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5157000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5664000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2576000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>398000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2822000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2964000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2879000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4606000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4674000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5650000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4534000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1015000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1559000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1033000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1415000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1914000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2207000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1322000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1379000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1052000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1233000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1251000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1343000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>806000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1002000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>688000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>801000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>975000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1502000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1522000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1664000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1332000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3132000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4364000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2811000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2008000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5201000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6439000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4074000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4294000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3321000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3680000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3906000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4321000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1770000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-604000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2134000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2163000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1904000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3104000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3152000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3986000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3105000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4276000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2730000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2091000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5135000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6476000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3990000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4141000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3288000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3610000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3842000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4195000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1663000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-738000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1992000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1975000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1749000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2899000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3039000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3757000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,8 +2042,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2008,11 +2068,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2020,23 +2080,23 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-508000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>47000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-123000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>142000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>200000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2044,14 +2104,17 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2246,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1251000</v>
+      </c>
+      <c r="E32" s="3">
         <v>916000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2499000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1844000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2878000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3245000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-764000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1003000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-288000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>29000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-885000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-266000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1817000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1802000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-37000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-42000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-38000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-35000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-30000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3105000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4276000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2730000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2091000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5135000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6476000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3990000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4141000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3288000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3610000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3842000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3687000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1710000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-861000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2134000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2175000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1749000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2899000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3039000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3757000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3105000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4276000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2730000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2091000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5135000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6476000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3990000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4141000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3288000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3610000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3842000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3687000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1710000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-861000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2134000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2175000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1749000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2899000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3039000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3757000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,73 +2645,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16111000</v>
+      </c>
+      <c r="E41" s="3">
         <v>22831000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22846000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17741000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14325000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16906000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14930000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9465000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8606000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9283000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9255000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7722000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9174000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15840000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7885000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6456000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7026000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6469000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6545000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6602000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5939000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2690,268 +2779,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7349000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6103000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5797000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6516000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5770000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5111000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5029000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6284000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5612000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5382000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5342000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6283000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5785000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5002000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4568000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5614000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5865000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5395000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5252000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5835000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5344000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>57484000</v>
+      </c>
+      <c r="E44" s="3">
         <v>47754000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>46383000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>44949000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>51842000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>41084000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>41217000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>44435000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>51546000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>44134000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>44751000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>44269000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>50380000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>41985000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>43303000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>43783000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>50147000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>43442000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>43361000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>43046000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>49822000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2020000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1555000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1565000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20861000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1665000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1895000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2152000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1622000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2148000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2572000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2391000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3623000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4107000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3543000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3486000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3811000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2330000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1457000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2178000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2206000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>82964000</v>
+      </c>
+      <c r="E46" s="3">
         <v>78243000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>76591000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>90067000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>73602000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>64996000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>63328000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>61806000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>67912000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>61371000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>61739000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>61897000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>69446000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>66370000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>59242000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>59664000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>65368000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>56763000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>57336000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>57689000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>63401000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3015,138 +3119,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>110331000</v>
+      </c>
+      <c r="E48" s="3">
         <v>109598000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>108625000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>109848000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>124289000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>122894000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>123378000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>127049000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>125425000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>125862000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>125241000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>111395000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>111349000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>111017000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>114800000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>114818000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>115299000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>115353000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>114169000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>114178000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>115088000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28923000</v>
+      </c>
+      <c r="E49" s="3">
         <v>29159000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>28872000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>28983000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>30236000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29542000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29416000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>31073000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30716000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31454000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31416000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31181000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31044000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17840000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18850000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18242000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>18204000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>18037000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>17575000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>17037000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>17792000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,73 +3391,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22633000</v>
+      </c>
+      <c r="E52" s="3">
         <v>21552000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22493000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23598000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22736000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19950000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16770000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16567000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15777000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16174000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16148000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14822000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14744000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10835000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12035000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11798000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10543000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11413000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10638000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9921000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10576000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>244851000</v>
+      </c>
+      <c r="E54" s="3">
         <v>238552000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>236581000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>252496000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>250863000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>237382000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>232892000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>236495000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>239830000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>234861000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>234544000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>219295000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>226583000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>206062000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>204927000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>204522000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>209414000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>201566000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>199718000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>198825000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>206857000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,398 +3649,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57156000</v>
+      </c>
+      <c r="E57" s="3">
         <v>49601000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>48151000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>49141000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>54152000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>46326000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>44096000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>46973000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49750000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45871000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45110000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>47060000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>49729000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>43128000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>44612000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>46092000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>47587000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>42389000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>41367000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>41433000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>42990000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2530000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2789000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4369000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3830000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5172000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6459000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10554000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6448000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9487000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8516000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6727000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7830000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11095000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2228000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10038000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9662000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9021000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7174000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6472000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3920000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7897000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27934000</v>
+      </c>
+      <c r="E59" s="3">
         <v>28732000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28321000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39674000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28797000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29172000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27997000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24369000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24547000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25896000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28051000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22587000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24927000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>26327000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>26107000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22767000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>23827000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>23248000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>26354000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>21575000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>23243000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>87620000</v>
+      </c>
+      <c r="E60" s="3">
         <v>81122000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>80841000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>92645000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>88121000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>81957000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>82647000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>77790000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>83784000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>80283000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>79888000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>77477000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>85751000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>71683000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>80757000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>78521000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>80435000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>72811000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>74193000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>66928000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>74130000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>40486000</v>
+      </c>
+      <c r="E61" s="3">
         <v>43533000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>44075000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>45041000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>45599000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>45632000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>47480000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>48021000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>45150000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44612000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>47441000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>46340000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>46161000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>47732000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32330000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>32784000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>36483000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>36025000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>40025000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>42018000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>42108000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25988000</v>
+      </c>
+      <c r="E62" s="3">
         <v>26770000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27073000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>27279000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>29639000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>28596000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>28655000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>29132000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>32589000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>32835000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>32305000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15844000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15202000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12835000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13516000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12395000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13590000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13684000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9386000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9344000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10144000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>162577000</v>
+      </c>
+      <c r="E66" s="3">
         <v>158023000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>158246000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>171571000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>169432000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>162072000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>164652000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>161826000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>168181000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>164534000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>166339000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>146799000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>154587000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>134877000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>129375000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>126653000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>133269000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>125177000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>126027000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>121027000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>129164000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>85674000</v>
+      </c>
+      <c r="E72" s="3">
         <v>84572000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>82577000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>88763000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>92279000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>87614000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>81141000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>83943000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>80656000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>78432000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>76276000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>80785000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>80287000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>80810000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>82982000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>85107000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>84480000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>84838000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>84120000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>89354000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>87636000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>82274000</v>
+      </c>
+      <c r="E76" s="3">
         <v>80529000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>78335000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>80925000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>81431000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>75310000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>68240000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>74669000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>71649000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>70327000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>68205000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>72496000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>71996000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>71185000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>75552000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>77869000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>76145000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>76389000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>73691000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>77798000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>77693000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3105000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4276000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2730000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2091000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5135000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6476000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3990000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4141000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3288000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3610000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3842000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3687000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1710000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-861000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2134000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2175000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1749000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2899000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3039000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3757000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5202,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2650000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2641000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2661000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2819000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2771000</v>
       </c>
       <c r="H83" s="3">
         <v>2771000</v>
       </c>
       <c r="I83" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="J83" s="3">
         <v>2791000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2828000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2723000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2722000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2714000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2731000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2615000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2654000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2678000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2702000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2658000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2618000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2551000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2706000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3868000</v>
+      </c>
+      <c r="E89" s="3">
         <v>9565000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4706000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13194000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3924000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11939000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7017000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10716000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3354000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7622000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3563000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10445000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6213000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5934000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5161000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11277000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5700000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5975000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5385000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>11892000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4850000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5704,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3569000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2805000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2214000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3826000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2869000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1817000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1752000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2940000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2894000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2205000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3330000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2732000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2464000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1818000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3143000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2485000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2433000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3980000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6320000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10299000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3932000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3448000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5850000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3564000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2873000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1938000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1696000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2843000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2461000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2689000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1135000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3482000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16126000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2746000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1682000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3206000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1681000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1861000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2937000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6634000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,73 +6002,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1536000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1524000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1529000</v>
       </c>
       <c r="I96" s="3">
         <v>-1529000</v>
       </c>
       <c r="J96" s="3">
+        <v>-1529000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1503000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1509000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1530000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1533000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1510000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1526000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1539000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1549000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,199 +6272,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6554000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6160000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5399000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4777000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3526000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8379000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>565000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7086000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4685000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-846000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8458000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3441000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4966000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2486000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8459000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2785000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4659000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3972000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-7794000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E101" s="3">
         <v>30000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-51000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>405000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-101000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>346000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-415000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>97000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-220000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-46000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>47000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-186000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-442000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>143000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>101000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-46000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>293000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>139000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-227000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6715000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5106000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5258000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2576000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1968000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5471000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>884000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-689000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>28000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1536000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1448000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6658000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7712000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1136000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-287000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>557000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-72000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-309000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>928000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1737000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>WMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,305 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>152871000</v>
+      </c>
+      <c r="E8" s="3">
         <v>140525000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>141048000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>138310000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>152079000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>134708000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>137742000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>134622000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>141671000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>127991000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>130377000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>123925000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>138793000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>124894000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>128028000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>122690000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>136267000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>123179000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>123355000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>117542000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>130936000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>118179000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>115522000</v>
+      </c>
+      <c r="E9" s="3">
         <v>105023000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>105183000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>103272000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>115261000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>100339000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>102689000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>102026000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>107748000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>95900000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>97923000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>93034000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>104907000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>93116000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>95571000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>91707000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>102640000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>91547000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>91521000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>87688000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>97743000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>87484000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>37349000</v>
+      </c>
+      <c r="E10" s="3">
         <v>35502000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>35865000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>35038000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>36818000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>34369000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35053000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32596000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33923000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32091000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32454000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>30891000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33886000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>31778000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32457000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>30983000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>33627000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>31632000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>31834000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>29854000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>33193000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>30695000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,37 +1128,40 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2610000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1200000</v>
       </c>
-      <c r="F14" s="3">
-        <v>500000</v>
-      </c>
       <c r="G14" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="H14" s="3">
         <v>8400000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1600000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1900000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1150,29 +1169,29 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>4800000</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1004000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1344000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>788000</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1180,8 +1199,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1248,8 +1270,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>146984000</v>
+      </c>
+      <c r="E17" s="3">
         <v>137143000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>133694000</v>
       </c>
-      <c r="F17" s="3">
-        <v>131401000</v>
-      </c>
       <c r="G17" s="3">
+        <v>132201000</v>
+      </c>
+      <c r="H17" s="3">
         <v>153992000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>129930000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>131683000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>129398000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>136349000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>123273000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>124794000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>118980000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>132726000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>119908000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>127078000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>117536000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>132804000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>119759000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>118174000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>112305000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>124731000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>113060000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5887000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3382000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7354000</v>
       </c>
-      <c r="F18" s="3">
-        <v>6909000</v>
-      </c>
       <c r="G18" s="3">
+        <v>6109000</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1913000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4778000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6059000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5224000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5322000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4718000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5583000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4945000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6067000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4986000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>950000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5154000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3463000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3420000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5181000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5237000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6205000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5119000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,348 +1465,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-678000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1251000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-916000</v>
       </c>
-      <c r="F20" s="3">
-        <v>-2499000</v>
-      </c>
       <c r="G20" s="3">
+        <v>-1699000</v>
+      </c>
+      <c r="H20" s="3">
         <v>1844000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2878000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3245000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>764000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1003000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>288000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-29000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>885000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>266000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1817000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1802000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>37000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>42000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>38000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>35000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>30000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7915000</v>
+      </c>
+      <c r="E21" s="3">
         <v>7283000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9079000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7071000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2750000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10427000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12075000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8779000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9153000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7729000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8276000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8544000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9064000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5784000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3606000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6030000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6202000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6120000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7837000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7823000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8941000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>427000</v>
+      </c>
+      <c r="E22" s="3">
         <v>486000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>515000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>566000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>524000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>541000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>658000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>592000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>652000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>633000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>641000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>673000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>669000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>593000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>554000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>530000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>536000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>583000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>613000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>598000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>585000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>609000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4782000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4147000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5923000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3844000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-593000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7115000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8646000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5396000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5673000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4373000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4913000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5157000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5664000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2576000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>398000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2822000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2964000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2879000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4606000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4674000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5650000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4534000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1149000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1015000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1559000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1033000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1415000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1914000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2207000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1322000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1379000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1052000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1233000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1251000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1343000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>806000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1002000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>688000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>801000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>975000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1502000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1522000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1664000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1332000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3633000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3132000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4364000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2811000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2008000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5201000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6439000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4074000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4294000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3321000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3680000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3906000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4321000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1770000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-604000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2134000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2163000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1904000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3104000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3152000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3986000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3562000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3105000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4276000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2730000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2091000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5135000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6476000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3990000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4141000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3288000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3610000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3842000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4195000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1663000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-738000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1992000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1975000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1749000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2899000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3039000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3757000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2102,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2071,11 +2131,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2083,23 +2143,23 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-508000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>47000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-123000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>142000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>200000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2107,14 +2167,17 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>678000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1251000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>916000</v>
       </c>
-      <c r="F32" s="3">
-        <v>2499000</v>
-      </c>
       <c r="G32" s="3">
+        <v>1699000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1844000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2878000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3245000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-764000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1003000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-288000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>29000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-885000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-266000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1817000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1802000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-37000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-42000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-38000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-35000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-30000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3562000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3105000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4276000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2730000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2091000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5135000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6476000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3990000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4141000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3288000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3610000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3842000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3687000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1710000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-861000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2134000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2175000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1749000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2899000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3039000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3757000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3562000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3105000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4276000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2730000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2091000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5135000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6476000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3990000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4141000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3288000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3610000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3842000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3687000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1710000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-861000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2134000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2175000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1749000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2899000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3039000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3757000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,76 +2731,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14760000</v>
+      </c>
+      <c r="E41" s="3">
         <v>16111000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22831000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22846000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17741000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14325000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16906000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14930000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9465000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8606000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9283000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9255000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7722000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9174000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15840000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7885000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6456000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7026000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6469000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6545000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6602000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5939000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2782,280 +2871,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8280000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7349000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6103000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5797000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6516000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5770000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5111000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5029000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6284000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5612000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5382000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5342000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6283000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5785000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5002000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4568000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5614000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5865000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5395000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5252000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5835000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5344000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>56511000</v>
+      </c>
+      <c r="E44" s="3">
         <v>57484000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>47754000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>46383000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>44949000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>51842000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>41084000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>41217000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>44435000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>51546000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>44134000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>44751000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>44269000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>50380000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>41985000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>43303000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>43783000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>50147000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>43442000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>43361000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>43046000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>49822000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1519000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2020000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1555000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1565000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20861000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1665000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1895000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2152000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1622000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2148000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2572000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2391000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3623000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4107000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3543000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3486000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3811000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2330000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1457000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2178000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2206000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>81070000</v>
+      </c>
+      <c r="E46" s="3">
         <v>82964000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>78243000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>76591000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>90067000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>73602000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>64996000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>63328000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>61806000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>67912000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>61371000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>61739000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>61897000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>69446000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>66370000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>59242000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>59664000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>65368000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>56763000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>57336000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>57689000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>63401000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3122,144 +3226,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>112624000</v>
+      </c>
+      <c r="E48" s="3">
         <v>110331000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>109598000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>108625000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>109848000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>124289000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>122894000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>123378000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>127049000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>125425000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>125862000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>125241000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>111395000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>111349000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>111017000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>114800000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>114818000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>115299000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>115353000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>114169000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>114178000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>115088000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29014000</v>
+      </c>
+      <c r="E49" s="3">
         <v>28923000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29159000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>28872000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>28983000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>30236000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29542000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29416000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31073000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>30716000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31454000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31416000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31181000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31044000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17840000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18850000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>18242000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>18204000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>18037000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>17575000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>17037000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>17792000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3510,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22152000</v>
+      </c>
+      <c r="E52" s="3">
         <v>22633000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21552000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22493000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>23598000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22736000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19950000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16770000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16567000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15777000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16174000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16148000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14822000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14744000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10835000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12035000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11798000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10543000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11413000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10638000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9921000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10576000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>244860000</v>
+      </c>
+      <c r="E54" s="3">
         <v>244851000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>238552000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>236581000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>252496000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>250863000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>237382000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>232892000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>236495000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>239830000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>234861000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>234544000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>219295000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>226583000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>206062000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>204927000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>204522000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>209414000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>201566000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>199718000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>198825000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>206857000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,416 +3779,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55261000</v>
+      </c>
+      <c r="E57" s="3">
         <v>57156000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>49601000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>48151000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49141000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>54152000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>46326000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>44096000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46973000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>49750000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45871000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45110000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>47060000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>49729000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>43128000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>44612000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>46092000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>47587000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>42389000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>41367000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>41433000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>42990000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3724000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2530000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2789000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4369000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3830000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5172000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6459000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10554000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6448000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9487000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8516000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6727000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7830000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11095000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2228000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10038000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9662000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9021000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7174000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6472000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3920000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7897000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28394000</v>
+      </c>
+      <c r="E59" s="3">
         <v>27934000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28732000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28321000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39674000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28797000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29172000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27997000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24369000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24547000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>25896000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28051000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22587000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>24927000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>26327000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>26107000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>22767000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>23827000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>23248000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>26354000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>21575000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>23243000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>87379000</v>
+      </c>
+      <c r="E60" s="3">
         <v>87620000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>81122000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>80841000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>92645000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>88121000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>81957000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>82647000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>77790000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>83784000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>80283000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>79888000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>77477000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>85751000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>71683000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>80757000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>78521000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>80435000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>72811000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>74193000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>66928000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>74130000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39107000</v>
+      </c>
+      <c r="E61" s="3">
         <v>40486000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>43533000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>44075000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>45041000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>45599000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>45632000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>47480000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>48021000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>45150000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44612000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>47441000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>46340000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>46161000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>47732000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>32330000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>32784000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>36483000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>36025000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>40025000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>42018000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>42108000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26483000</v>
+      </c>
+      <c r="E62" s="3">
         <v>25988000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26770000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>27073000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>27279000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>29639000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>28596000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>28655000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29132000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>32589000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>32835000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>32305000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15844000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15202000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12835000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13516000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12395000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13590000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13684000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9386000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9344000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10144000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>161607000</v>
+      </c>
+      <c r="E66" s="3">
         <v>162577000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>158023000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>158246000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>171571000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>169432000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>162072000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>164652000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>161826000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>168181000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>164534000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>166339000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>146799000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>154587000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>134877000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>129375000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>126653000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>133269000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>125177000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>126027000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>121027000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>129164000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>86904000</v>
+      </c>
+      <c r="E72" s="3">
         <v>85674000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>84572000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>82577000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>88763000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>92279000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>87614000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>81141000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>83943000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>80656000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>78432000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>76276000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>80785000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>80287000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>80810000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>82982000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>85107000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>84480000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>84838000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>84120000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>89354000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>87636000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>83253000</v>
+      </c>
+      <c r="E76" s="3">
         <v>82274000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>80529000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>78335000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>80925000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>81431000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>75310000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>68240000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>74669000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>71649000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>70327000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>68205000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>72496000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>71996000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>71185000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>75552000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>77869000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>76145000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>76389000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>73691000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>77798000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>77693000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3562000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3105000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4276000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2730000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2091000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5135000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6476000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3990000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4141000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3288000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3610000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3842000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3687000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1710000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-861000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2134000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2175000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1749000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2899000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3039000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3757000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2706000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2650000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2641000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2661000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2819000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2771000</v>
       </c>
       <c r="I83" s="3">
         <v>2771000</v>
       </c>
       <c r="J83" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="K83" s="3">
         <v>2791000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2828000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2723000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2722000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2714000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2731000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2615000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2654000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2678000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2702000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2658000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2618000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2551000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2706000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7890000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3868000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9565000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4706000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13194000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3924000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11939000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7017000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10716000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3354000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7622000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3563000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10445000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6213000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5934000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5161000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11277000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5700000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5975000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5385000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>11892000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4850000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4518000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3569000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2805000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2214000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3826000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2869000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1817000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1752000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2940000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2894000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2205000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3330000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2732000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2464000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1818000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3143000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2485000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2433000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3980000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6320000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10299000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4485000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3932000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3448000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5850000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3564000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2873000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1938000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1696000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2843000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2461000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2689000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1135000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3482000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16126000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2746000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1682000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3206000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1681000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1861000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2937000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6634000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,76 +6235,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1525000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1536000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1524000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1529000</v>
       </c>
       <c r="J96" s="3">
         <v>-1529000</v>
       </c>
       <c r="K96" s="3">
+        <v>-1529000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1503000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1509000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1530000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1533000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1510000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1526000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1539000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1549000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,208 +6517,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4715000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6554000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6160000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5399000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4777000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3526000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8379000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>565000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7086000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4685000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-846000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8458000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3441000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4966000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2486000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8459000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2785000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4659000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3972000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-7794000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-97000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>30000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-51000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>405000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-101000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>346000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-415000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>97000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-220000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-46000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>47000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-186000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-442000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>143000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>101000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-46000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>293000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>139000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-227000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1332000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6715000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5106000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5258000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2576000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1968000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5471000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>884000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-689000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>28000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1536000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1448000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6658000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7712000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1136000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-287000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>557000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-72000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-309000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>928000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1737000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>WMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,317 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>141569000</v>
+      </c>
+      <c r="E8" s="3">
         <v>152871000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>140525000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>141048000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>138310000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>152079000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>134708000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>137742000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>134622000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>141671000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>127991000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>130377000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>123925000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>138793000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>124894000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>128028000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>122690000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>136267000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>123179000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>123355000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>117542000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>130936000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>118179000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>106847000</v>
+      </c>
+      <c r="E9" s="3">
         <v>115522000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>105023000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>105183000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>103272000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>115261000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>100339000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>102689000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>102026000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>107748000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>95900000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>97923000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>93034000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>104907000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>93116000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>95571000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>91707000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>102640000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>91547000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>91521000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>87688000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>97743000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>87484000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>34722000</v>
+      </c>
+      <c r="E10" s="3">
         <v>37349000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>35502000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>35865000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>35038000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36818000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>34369000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>35053000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32596000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33923000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32091000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32454000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>30891000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33886000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>31778000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>32457000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>30983000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>33627000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>31632000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>31834000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>29854000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>33193000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>30695000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +1001,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,40 +1147,43 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E14" s="3">
         <v>500000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2610000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1200000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8400000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1600000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1900000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1172,29 +1191,29 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>4800000</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1004000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1344000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>788000</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1202,8 +1221,11 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,8 +1295,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1322,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>136651000</v>
+      </c>
+      <c r="E17" s="3">
         <v>146984000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>137143000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>133694000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>132201000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>153992000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>129930000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>131683000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>129398000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>136349000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>123273000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>124794000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>118980000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>132726000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>119908000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>127078000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>117536000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>132804000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>119759000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>118174000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>112305000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>124731000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>113060000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4918000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5887000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3382000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7354000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6109000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1913000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4778000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6059000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5224000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5322000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4718000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5583000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4945000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6067000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4986000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>950000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5154000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3463000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3420000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5181000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5237000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6205000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>5119000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,363 +1498,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1562000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-678000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1251000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-916000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1699000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1844000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2878000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3245000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>764000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1003000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>288000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-29000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>885000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>266000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1817000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1802000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>37000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>42000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>38000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>35000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>30000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6036000</v>
+      </c>
+      <c r="E21" s="3">
         <v>7915000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7283000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9079000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7071000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2750000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10427000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12075000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8779000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9153000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7729000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8276000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8544000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9064000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5784000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3606000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6030000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6202000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6120000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7837000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7823000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8941000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E22" s="3">
         <v>427000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>486000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>515000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>566000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>524000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>541000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>658000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>592000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>652000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>633000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>641000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>673000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>669000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>593000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>554000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>530000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>536000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>583000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>613000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>598000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>585000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>609000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2901000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4782000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4147000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5923000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3844000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-593000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7115000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8646000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5396000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5673000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4373000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4913000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5157000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5664000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2576000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>398000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2822000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2964000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2879000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4606000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4674000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5650000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4534000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>798000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1149000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1015000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1559000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1033000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1415000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1914000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2207000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1322000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1379000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1052000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1233000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1251000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1343000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>806000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1002000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>688000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>801000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>975000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1502000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1522000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1664000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1332000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1940,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2103000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3633000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3132000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4364000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2811000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2008000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5201000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6439000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4074000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4294000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3321000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3680000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3906000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4321000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1770000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-604000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2134000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2163000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1904000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3104000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3152000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3986000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2054000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3562000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3105000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4276000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2730000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2091000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5135000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6476000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3990000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4141000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3288000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3610000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3842000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4195000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1663000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-738000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1992000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1975000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1749000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2899000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3039000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3757000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,40 +2162,43 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2146,23 +2206,23 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-508000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>47000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-123000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>142000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>200000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2170,14 +2230,17 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2310,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2384,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1562000</v>
+      </c>
+      <c r="E32" s="3">
         <v>678000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1251000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>916000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1699000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1844000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2878000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3245000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-764000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1003000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-288000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>29000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-885000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-266000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1817000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1802000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-37000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-42000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-38000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-35000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-30000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2054000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3562000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3105000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4276000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2730000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2091000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5135000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6476000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3990000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4141000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3288000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3610000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3842000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3687000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1710000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-861000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2134000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2175000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1749000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2899000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3039000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3757000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2606,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2054000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3562000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3105000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4276000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2730000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2091000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5135000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6476000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3990000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4141000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3288000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3610000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3842000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3687000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1710000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-861000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2134000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2175000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1749000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2899000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3039000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3757000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2789,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,79 +2817,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11817000</v>
+      </c>
+      <c r="E41" s="3">
         <v>14760000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16111000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22831000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22846000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17741000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14325000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16906000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14930000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9465000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8606000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9283000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9255000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7722000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9174000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15840000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7885000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6456000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7026000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6469000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6545000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6602000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5939000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2874,292 +2963,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7674000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8280000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7349000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6103000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5797000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6516000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5770000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5111000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5029000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6284000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5612000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5382000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5342000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6283000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5785000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5002000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4568000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5614000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5865000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5395000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5252000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5835000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5344000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>61229000</v>
+      </c>
+      <c r="E44" s="3">
         <v>56511000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>57484000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>47754000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>46383000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>44949000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>51842000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>41084000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>41217000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>44435000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>51546000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>44134000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>44751000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>44269000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>50380000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>41985000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>43303000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>43783000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>50147000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>43442000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>43361000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>43046000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>49822000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1519000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2020000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1555000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1565000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20861000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1665000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1895000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2152000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1622000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2148000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2572000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2391000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3623000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4107000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3543000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3486000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3811000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2330000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1457000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2178000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2206000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>83220000</v>
+      </c>
+      <c r="E46" s="3">
         <v>81070000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>82964000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>78243000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>76591000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>90067000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>73602000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>64996000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>63328000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>61806000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>67912000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>61371000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>61739000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>61897000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>69446000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>66370000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>59242000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>59664000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>65368000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>56763000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>57336000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>57689000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>63401000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3229,150 +3333,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>113217000</v>
+      </c>
+      <c r="E48" s="3">
         <v>112624000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>110331000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>109598000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>108625000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>109848000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>124289000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>122894000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>123378000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>127049000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>125425000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>125862000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>125241000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>111395000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>111349000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>111017000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>114800000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>114818000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>115299000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>115353000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>114169000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>114178000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>115088000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29438000</v>
+      </c>
+      <c r="E49" s="3">
         <v>29014000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>28923000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29159000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>28872000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>28983000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>30236000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29542000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29416000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31073000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>30716000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31454000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31416000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31181000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31044000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>17840000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>18850000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>18242000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>18204000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>18037000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>17575000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>17037000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>17792000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3555,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3629,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20267000</v>
+      </c>
+      <c r="E52" s="3">
         <v>22152000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22633000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21552000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22493000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>23598000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22736000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>19950000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16770000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16567000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15777000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16174000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16148000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14822000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14744000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10835000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12035000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11798000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10543000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11413000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10638000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9921000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10576000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3777,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>246142000</v>
+      </c>
+      <c r="E54" s="3">
         <v>244860000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>244851000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>238552000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>236581000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>252496000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>250863000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>237382000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>232892000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>236495000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>239830000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>234861000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>234544000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>219295000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>226583000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>206062000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>204927000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>204522000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>209414000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>201566000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>199718000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>198825000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>206857000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +3881,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,434 +3909,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>52926000</v>
+      </c>
+      <c r="E57" s="3">
         <v>55261000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57156000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>49601000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>48151000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49141000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>54152000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>46326000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44096000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>46973000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>49750000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45871000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45110000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>47060000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>49729000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>43128000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>44612000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>46092000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>47587000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>42389000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>41367000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>41433000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>42990000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15523000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3724000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2530000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2789000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4369000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3830000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5172000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6459000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10554000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6448000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9487000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8516000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6727000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7830000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11095000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2228000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10038000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9662000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9021000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7174000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6472000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3920000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7897000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28081000</v>
+      </c>
+      <c r="E59" s="3">
         <v>28394000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27934000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28732000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28321000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39674000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28797000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>29172000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27997000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24369000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24547000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>25896000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>28051000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22587000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>24927000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>26327000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>26107000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>22767000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>23827000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>23248000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>26354000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>21575000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>23243000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>96530000</v>
+      </c>
+      <c r="E60" s="3">
         <v>87379000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>87620000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>81122000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>80841000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>92645000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>88121000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>81957000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>82647000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>77790000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>83784000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>80283000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>79888000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>77477000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>85751000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>71683000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>80757000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>78521000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>80435000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>72811000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>74193000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>66928000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>74130000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36583000</v>
+      </c>
+      <c r="E61" s="3">
         <v>39107000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>40486000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>43533000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>44075000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>45041000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>45599000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>45632000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>47480000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>48021000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>45150000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>44612000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>47441000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>46340000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>46161000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>47732000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>32330000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>32784000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>36483000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>36025000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>40025000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>42018000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>42108000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27169000</v>
+      </c>
+      <c r="E62" s="3">
         <v>26483000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25988000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26770000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>27073000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>27279000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>29639000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>28596000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28655000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29132000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>32589000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>32835000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>32305000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15844000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15202000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12835000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13516000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12395000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13590000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13684000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9386000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9344000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>10144000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4425,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4499,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4573,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>169246000</v>
+      </c>
+      <c r="E66" s="3">
         <v>161607000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>162577000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>158023000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>158246000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>171571000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>169432000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>162072000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>164652000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>161826000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>168181000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>164534000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>166339000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>146799000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>154587000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>134877000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>129375000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>126653000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>133269000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>125177000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>126027000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>121027000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>129164000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4677,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4749,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4823,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +4897,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +4971,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>80532000</v>
+      </c>
+      <c r="E72" s="3">
         <v>86904000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>85674000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>84572000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>82577000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>88763000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>92279000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>87614000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>81141000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>83943000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>80656000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>78432000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>76276000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>80785000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>80287000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>80810000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>82982000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>85107000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>84480000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>84838000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>84120000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>89354000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>87636000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5119,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5193,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5267,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>76896000</v>
+      </c>
+      <c r="E76" s="3">
         <v>83253000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>82274000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>80529000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>78335000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>80925000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>81431000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>75310000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>68240000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>74669000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>71649000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>70327000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>68205000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>72496000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>71996000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>71185000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>75552000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>77869000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>76145000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>76389000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>73691000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>77798000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>77693000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5415,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2054000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3562000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3105000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4276000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2730000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2091000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5135000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6476000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3990000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4141000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3288000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3610000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3842000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3687000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1710000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-861000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2134000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2175000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1749000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2899000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3039000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3757000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5598,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2680000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2706000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2650000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2641000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2661000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2819000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2771000</v>
       </c>
       <c r="J83" s="3">
         <v>2771000</v>
       </c>
       <c r="K83" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="L83" s="3">
         <v>2791000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2828000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2723000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2722000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2714000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2731000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2615000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2654000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2678000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2702000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2658000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2618000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2551000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2706000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5744,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +5818,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +5892,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +5966,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6040,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3758000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7890000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3868000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9565000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4706000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13194000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3924000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11939000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7017000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10716000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3354000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7622000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3563000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10445000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6213000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5934000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5161000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11277000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5700000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5975000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5385000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>11892000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4850000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6144,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3539000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4518000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3569000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2805000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2214000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3826000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2869000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1817000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1752000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2940000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2894000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2205000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3330000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2732000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2464000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1818000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3143000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2485000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2433000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3980000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6320000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-10299000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6290,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6364,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4558000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4485000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3932000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3448000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5850000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3564000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2873000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1938000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1696000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2843000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2461000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2689000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1135000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3482000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16126000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2746000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1682000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3206000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1681000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1861000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2937000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6634000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,79 +6468,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1543000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1525000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1536000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1524000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1529000</v>
       </c>
       <c r="K96" s="3">
         <v>-1529000</v>
       </c>
       <c r="L96" s="3">
+        <v>-1529000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1503000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1509000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1530000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1533000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1510000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1526000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1539000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1549000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6614,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6688,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,217 +6762,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5315000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4715000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6554000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6160000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5399000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4777000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3526000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8379000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>565000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7086000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4685000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-846000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8458000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3441000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4966000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2486000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8459000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2785000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4659000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3972000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-7794000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-22000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-97000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>30000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-51000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>405000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-101000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>346000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-415000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>97000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-220000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-46000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>47000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-186000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-442000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>143000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>101000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-46000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>293000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>139000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-227000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2952000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1332000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6715000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5106000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5258000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2576000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1968000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5471000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>884000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-689000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1536000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1448000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6658000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7712000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1136000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-287000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>557000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-72000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-309000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>928000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1737000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>WMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,317 +665,329 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>152859000</v>
+      </c>
+      <c r="E8" s="3">
         <v>141569000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>152871000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>140525000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>141048000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>138310000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>152079000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>134708000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>137742000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>134622000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>141671000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>127991000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>130377000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>123925000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>138793000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>124894000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>128028000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>122690000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>136267000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>123179000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>123355000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>117542000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>130936000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>118179000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>115838000</v>
+      </c>
+      <c r="E9" s="3">
         <v>106847000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>115522000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>105023000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>105183000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>103272000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>115261000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>100339000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>102689000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>102026000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>107748000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>95900000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>97923000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>93034000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>104907000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>93116000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>95571000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>91707000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>102640000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>91547000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>91521000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>87688000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>97743000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>87484000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>37021000</v>
+      </c>
+      <c r="E10" s="3">
         <v>34722000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>37349000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>35502000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>35865000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>35038000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>36818000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>34369000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35053000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32596000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33923000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32091000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32454000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>30891000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33886000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>31778000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>32457000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>30983000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>33627000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>31632000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>31834000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>29854000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>33193000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>30695000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1014,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,43 +1166,46 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="E14" s="3">
         <v>400000</v>
       </c>
-      <c r="E14" s="3">
-        <v>500000</v>
-      </c>
       <c r="F14" s="3">
+        <v>-300000</v>
+      </c>
+      <c r="G14" s="3">
         <v>2610000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1200000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1100000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8400000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1600000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1900000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>900000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1194,29 +1213,29 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>4800000</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1004000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1344000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>788000</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
@@ -1224,8 +1243,11 @@
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1298,8 +1320,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>145805000</v>
+      </c>
+      <c r="E17" s="3">
         <v>136651000</v>
       </c>
-      <c r="E17" s="3">
-        <v>146984000</v>
-      </c>
       <c r="F17" s="3">
+        <v>146184000</v>
+      </c>
+      <c r="G17" s="3">
         <v>137143000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>133694000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>132201000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>153992000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>129930000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>131683000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>129398000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>136349000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>123273000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>124794000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>118980000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>132726000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>119908000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>127078000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>117536000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>132804000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>119759000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>118174000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>112305000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>124731000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>113060000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7054000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4918000</v>
       </c>
-      <c r="E18" s="3">
-        <v>5887000</v>
-      </c>
       <c r="F18" s="3">
+        <v>6687000</v>
+      </c>
+      <c r="G18" s="3">
         <v>3382000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7354000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6109000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1913000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4778000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6059000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5224000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5322000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4718000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5583000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4945000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6067000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4986000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>950000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5154000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3463000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3420000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5181000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5237000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>6205000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>5119000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,378 +1531,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1562000</v>
       </c>
-      <c r="E20" s="3">
-        <v>-678000</v>
-      </c>
       <c r="F20" s="3">
+        <v>-1478000</v>
+      </c>
+      <c r="G20" s="3">
         <v>1251000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-916000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1699000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1844000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2878000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3245000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>764000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1003000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>288000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-29000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>885000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>266000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1817000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1802000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>37000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>42000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>38000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>35000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>30000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9822000</v>
+      </c>
+      <c r="E21" s="3">
         <v>6036000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7915000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7283000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9079000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7071000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2750000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10427000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12075000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8779000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9153000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7729000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8276000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8544000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9064000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5784000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3606000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6030000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6202000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6120000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7837000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7823000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>8941000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>479000</v>
+      </c>
+      <c r="E22" s="3">
         <v>455000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>427000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>486000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>515000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>566000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>524000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>541000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>658000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>592000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>652000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>633000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>641000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>673000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>669000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>593000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>554000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>530000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>536000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>583000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>613000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>598000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>585000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>609000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6644000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2901000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4782000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4147000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5923000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3844000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-593000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7115000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8646000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5396000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5673000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4373000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4913000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5157000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5664000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2576000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>398000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2822000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2964000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2879000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4606000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4674000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5650000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4534000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1497000</v>
+      </c>
+      <c r="E24" s="3">
         <v>798000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1149000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1015000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1559000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1033000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1415000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1914000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2207000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1322000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1379000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1052000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1233000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1251000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1343000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>806000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1002000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>688000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>801000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>975000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1502000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1522000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1664000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1332000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5147000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2103000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3633000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3132000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4364000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2811000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2008000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5201000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6439000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4074000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4294000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3321000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3680000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3906000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4321000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1770000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-604000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2134000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2163000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1904000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3104000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3152000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3986000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5149000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2054000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3562000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3105000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4276000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2730000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2091000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5135000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6476000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3990000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4141000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3288000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3610000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3842000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4195000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1663000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-738000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1992000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1975000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1749000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2899000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3039000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3757000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2165,8 +2222,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,17 +2251,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2209,23 +2269,23 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-508000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>47000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-123000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>142000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>200000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2233,14 +2293,17 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,156 +2453,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1562000</v>
       </c>
-      <c r="E32" s="3">
-        <v>678000</v>
-      </c>
       <c r="F32" s="3">
+        <v>1478000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1251000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>916000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1699000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1844000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2878000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3245000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-764000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1003000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-288000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>29000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-885000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-266000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1817000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1802000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-37000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-42000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-38000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-35000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-30000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5149000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2054000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3562000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3105000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4276000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2730000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2091000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5135000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6476000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3990000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4141000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3288000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3610000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3842000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3687000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1710000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-861000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2134000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2175000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1749000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2899000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3039000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3757000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5149000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2054000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3562000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3105000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4276000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2730000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2091000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5135000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6476000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3990000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4141000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3288000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3610000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3842000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3687000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1710000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-861000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2134000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2175000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1749000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2899000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3039000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3757000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,82 +2903,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13923000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11817000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14760000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16111000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22831000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22846000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17741000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14325000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16906000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14930000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9465000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8606000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9283000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9255000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7722000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9174000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15840000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7885000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6456000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7026000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6469000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6545000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6602000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5939000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2966,304 +3055,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7522000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7674000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8280000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7349000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6103000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5797000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6516000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5770000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5111000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5029000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6284000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5612000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5382000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5342000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6283000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5785000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5002000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4568000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5614000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5865000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5395000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5252000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5835000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5344000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>59921000</v>
+      </c>
+      <c r="E44" s="3">
         <v>61229000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>56511000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>57484000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>47754000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>46383000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>44949000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>51842000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>41084000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>41217000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>44435000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>51546000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>44134000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>44751000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>44269000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>50380000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>41985000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>43303000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>43783000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>50147000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>43442000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>43361000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>43046000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>49822000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2798000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1519000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2020000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1555000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1565000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20861000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1665000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1895000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2152000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1622000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2148000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2572000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2391000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3623000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4107000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3543000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3486000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3811000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2330000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1457000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2178000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2206000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>84164000</v>
+      </c>
+      <c r="E46" s="3">
         <v>83220000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>81070000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>82964000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>78243000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>76591000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>90067000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>73602000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>64996000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>63328000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>61806000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>67912000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>61371000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>61739000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>61897000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>69446000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>66370000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>59242000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>59664000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>65368000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>56763000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>57336000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>57689000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>63401000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3336,156 +3440,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>114392000</v>
+      </c>
+      <c r="E48" s="3">
         <v>113217000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>112624000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>110331000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>109598000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>108625000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>109848000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>124289000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>122894000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>123378000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>127049000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>125425000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>125862000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>125241000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>111395000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>111349000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>111017000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>114800000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>114818000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>115299000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>115353000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>114169000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>114178000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>115088000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28664000</v>
+      </c>
+      <c r="E49" s="3">
         <v>29438000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29014000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>28923000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29159000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>28872000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>28983000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>30236000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29542000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29416000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31073000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>30716000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31454000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31416000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31181000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>31044000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>17840000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>18850000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>18242000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>18204000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>18037000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>17575000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>17037000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>17792000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,82 +3748,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19979000</v>
+      </c>
+      <c r="E52" s="3">
         <v>20267000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22152000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22633000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21552000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22493000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23598000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22736000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19950000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16770000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16567000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15777000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16174000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16148000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14822000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14744000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10835000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12035000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11798000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10543000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11413000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10638000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9921000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10576000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>247199000</v>
+      </c>
+      <c r="E54" s="3">
         <v>246142000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>244860000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>244851000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>238552000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>236581000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>252496000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>250863000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>237382000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>232892000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>236495000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>239830000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>234861000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>234544000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>219295000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>226583000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>206062000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>204927000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>204522000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>209414000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>201566000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>199718000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>198825000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>206857000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,452 +4039,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>54191000</v>
+      </c>
+      <c r="E57" s="3">
         <v>52926000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>55261000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>57156000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49601000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>48151000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49141000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>54152000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46326000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44096000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>46973000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>49750000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45871000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>45110000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>47060000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>49729000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>43128000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>44612000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>46092000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>47587000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>42389000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>41367000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>41433000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>42990000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16484000</v>
+      </c>
+      <c r="E58" s="3">
         <v>15523000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3724000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2530000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2789000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4369000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3830000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5172000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6459000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10554000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6448000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9487000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8516000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6727000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7830000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11095000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2228000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>10038000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9662000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9021000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7174000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6472000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3920000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7897000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29224000</v>
+      </c>
+      <c r="E59" s="3">
         <v>28081000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28394000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27934000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28732000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28321000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>39674000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>28797000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29172000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27997000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24369000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24547000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>25896000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>28051000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22587000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>24927000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>26327000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>26107000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>22767000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>23827000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>23248000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>26354000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>21575000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>23243000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>99899000</v>
+      </c>
+      <c r="E60" s="3">
         <v>96530000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>87379000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>87620000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>81122000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>80841000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>92645000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>88121000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>81957000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>82647000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>77790000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>83784000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>80283000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>79888000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>77477000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>85751000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>71683000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>80757000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>78521000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>80435000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>72811000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>74193000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>66928000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>74130000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>34221000</v>
+      </c>
+      <c r="E61" s="3">
         <v>36583000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39107000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>40486000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>43533000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>44075000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>45041000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>45599000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>45632000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>47480000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>48021000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>45150000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>44612000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>47441000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>46340000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>46161000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>47732000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>32330000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>32784000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>36483000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>36025000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>40025000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>42018000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>42108000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27232000</v>
+      </c>
+      <c r="E62" s="3">
         <v>27169000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26483000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25988000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26770000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>27073000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>27279000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>29639000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28596000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28655000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29132000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>32589000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>32835000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>32305000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15844000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15202000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12835000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13516000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12395000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13590000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13684000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9386000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9344000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>10144000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>169630000</v>
+      </c>
+      <c r="E66" s="3">
         <v>169246000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>161607000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>162577000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>158023000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>158246000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>171571000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>169432000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>162072000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>164652000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>161826000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>168181000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>164534000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>166339000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>146799000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>154587000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>134877000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>129375000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>126653000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>133269000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>125177000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>126027000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>121027000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>129164000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +4990,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,82 +5144,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>82519000</v>
+      </c>
+      <c r="E72" s="3">
         <v>80532000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>86904000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>85674000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>84572000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>82577000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>88763000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>92279000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>87614000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>81141000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>83943000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>80656000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>78432000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>76276000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>80785000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>80287000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>80810000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>82982000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>85107000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>84480000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>84838000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>84120000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>89354000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>87636000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>77569000</v>
+      </c>
+      <c r="E76" s="3">
         <v>76896000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>83253000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>82274000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>80529000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>78335000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>80925000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>81431000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>75310000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>68240000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>74669000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>71649000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>70327000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>68205000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>72496000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>71996000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>71185000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>75552000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>77869000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>76145000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>76389000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>73691000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>77798000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>77693000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5149000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2054000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3562000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3105000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4276000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2730000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2091000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5135000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6476000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3990000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4141000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3288000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3610000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3842000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3687000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1710000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-861000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2134000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2175000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1749000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2899000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3039000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3757000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,82 +5796,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2699000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2680000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2706000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2650000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2641000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2661000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2819000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2771000</v>
       </c>
       <c r="K83" s="3">
         <v>2771000</v>
       </c>
       <c r="L83" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="M83" s="3">
         <v>2791000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2828000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2723000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2722000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2714000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2731000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2615000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2654000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2678000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2702000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2658000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2618000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2551000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2706000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,82 +6256,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12998000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3758000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7890000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3868000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9565000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4706000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>13194000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3924000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11939000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7017000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10716000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3354000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7622000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3563000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10445000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6213000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5934000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5161000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11277000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5700000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5975000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5385000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>11892000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4850000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,82 +6364,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3953000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3539000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4518000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3569000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2805000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2214000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3826000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2869000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1817000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1752000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2940000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2894000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2205000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3330000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2732000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2464000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1818000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3143000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2485000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2433000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3980000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6320000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-10299000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,82 +6593,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4026000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4558000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4485000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3932000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3448000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5850000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3564000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2873000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1938000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1696000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2843000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2461000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2689000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1135000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3482000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16126000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2746000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1682000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3206000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1681000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1861000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2937000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6634000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,82 +6701,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1538000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1543000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1525000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1536000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1524000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1529000</v>
       </c>
       <c r="L96" s="3">
         <v>-1529000</v>
       </c>
       <c r="M96" s="3">
+        <v>-1529000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1503000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1509000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1530000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1533000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1510000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1526000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1539000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1549000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,226 +7007,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6715000</v>
+      </c>
+      <c r="E100" s="3">
         <v>5315000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4715000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6554000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6160000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5399000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4777000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3526000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8379000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>565000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7086000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4685000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-846000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8458000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3441000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4966000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2486000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8459000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2785000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4659000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3972000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-7794000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E101" s="3">
         <v>49000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-22000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-97000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>30000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-51000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>405000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-101000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>346000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-415000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>97000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-220000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>47000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-186000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-442000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>143000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>101000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-46000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>293000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>139000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-227000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2108000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2952000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1332000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6715000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5106000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5258000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2576000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1968000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5471000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>884000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-689000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>28000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1536000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1448000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6658000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7712000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1136000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-287000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>557000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-72000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-309000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>928000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1737000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>WMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,329 +665,341 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>152813000</v>
+      </c>
+      <c r="E8" s="3">
         <v>152859000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>141569000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>152871000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>140525000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>141048000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>138310000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>152079000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>134708000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>137742000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>134622000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>141671000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>127991000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>130377000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>123925000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>138793000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>124894000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>128028000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>122690000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>136267000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>123179000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>123355000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>117542000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>130936000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>118179000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>115613000</v>
+      </c>
+      <c r="E9" s="3">
         <v>115838000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>106847000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>115522000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>105023000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>105183000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>103272000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>115261000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100339000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>102689000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>102026000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>107748000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>95900000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>97923000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>93034000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>104907000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>93116000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>95571000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>91707000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>102640000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>91547000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>91521000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>87688000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>97743000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>87484000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>37200000</v>
+      </c>
+      <c r="E10" s="3">
         <v>37021000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>34722000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>37349000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>35502000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>35865000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35038000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>36818000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>34369000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35053000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32596000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33923000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32091000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32454000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>30891000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33886000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>31778000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>32457000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>30983000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>33627000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>31632000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>31834000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>29854000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>33193000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>30695000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1027,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1105,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,46 +1185,49 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400000</v>
       </c>
-      <c r="F14" s="3">
-        <v>-300000</v>
-      </c>
       <c r="G14" s="3">
+        <v>500000</v>
+      </c>
+      <c r="H14" s="3">
         <v>2610000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1200000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1100000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8400000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1600000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1900000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>900000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1216,29 +1235,29 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>4800000</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1004000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1344000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>788000</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1246,8 +1265,11 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1323,8 +1345,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1374,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>150118000</v>
+      </c>
+      <c r="E17" s="3">
         <v>145805000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>136651000</v>
       </c>
-      <c r="F17" s="3">
-        <v>146184000</v>
-      </c>
       <c r="G17" s="3">
+        <v>146984000</v>
+      </c>
+      <c r="H17" s="3">
         <v>137143000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>133694000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>132201000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>153992000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>129930000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>131683000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>129398000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>136349000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>123273000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>124794000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>118980000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>132726000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>119908000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>127078000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>117536000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>132804000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>119759000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>118174000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>112305000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>124731000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>113060000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2695000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7054000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4918000</v>
       </c>
-      <c r="F18" s="3">
-        <v>6687000</v>
-      </c>
       <c r="G18" s="3">
+        <v>5887000</v>
+      </c>
+      <c r="H18" s="3">
         <v>3382000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7354000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6109000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1913000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4778000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6059000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5224000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5322000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4718000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5583000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4945000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6067000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4986000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>950000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5154000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3463000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3420000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5181000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>5237000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6205000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>5119000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,393 +1564,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3542000</v>
+      </c>
+      <c r="E20" s="3">
         <v>69000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1562000</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1478000</v>
-      </c>
       <c r="G20" s="3">
+        <v>-678000</v>
+      </c>
+      <c r="H20" s="3">
         <v>1251000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-916000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1699000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1844000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2878000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3245000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>764000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1003000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>288000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>885000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>266000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1817000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1802000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>37000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>42000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>38000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>35000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>30000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1908000</v>
+      </c>
+      <c r="E21" s="3">
         <v>9822000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6036000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7915000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7283000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9079000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7071000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2750000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10427000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12075000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8779000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9153000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7729000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8276000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8544000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9064000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5784000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3606000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6030000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6202000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6120000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7837000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>7823000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>8941000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>584000</v>
+      </c>
+      <c r="E22" s="3">
         <v>479000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>455000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>427000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>486000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>515000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>566000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>524000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>541000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>658000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>592000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>652000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>633000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>641000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>673000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>669000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>593000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>554000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>530000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>536000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>583000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>613000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>598000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>585000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>609000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1431000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6644000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2901000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4782000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4147000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5923000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3844000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-593000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7115000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8646000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5396000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5673000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4373000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4913000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5157000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5664000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2576000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>398000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2822000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2964000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2879000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4606000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4674000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5650000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4534000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1497000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>798000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1149000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1015000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1559000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1033000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1415000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1914000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2207000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1322000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1379000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1052000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1233000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1251000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1343000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>806000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1002000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>688000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>801000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>975000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1502000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1522000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1664000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1332000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2042,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1767000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5147000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2103000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3633000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3132000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4364000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2811000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2008000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5201000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6439000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4074000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4294000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3321000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3680000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3906000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4321000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1770000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-604000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2134000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2163000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1904000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3104000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3152000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3986000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1798000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5149000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2054000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3562000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3105000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4276000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2730000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2091000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5135000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6476000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3990000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4141000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3288000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3610000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3842000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4195000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1663000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-738000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1992000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1975000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1749000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2899000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3039000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3757000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2282,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2254,17 +2314,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2272,23 +2332,23 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-508000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>47000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-123000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>142000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>200000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2296,14 +2356,17 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2442,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2522,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3542000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-69000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1562000</v>
       </c>
-      <c r="F32" s="3">
-        <v>1478000</v>
-      </c>
       <c r="G32" s="3">
+        <v>678000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1251000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>916000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1699000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1844000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2878000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3245000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-764000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1003000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-288000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>29000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-885000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-266000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1817000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1802000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-37000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-42000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-35000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-30000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1798000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5149000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2054000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3562000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3105000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4276000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2730000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2091000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5135000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6476000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3990000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4141000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3288000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3610000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3842000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3687000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1710000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-861000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2134000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2175000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1749000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2899000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3039000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3757000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2762,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1798000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5149000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2054000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3562000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3105000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4276000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2730000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2091000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5135000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6476000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3990000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4141000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3288000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3610000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3842000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3687000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1710000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-861000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2134000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2175000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1749000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2899000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3039000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3757000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2959,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,85 +2989,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11587000</v>
+      </c>
+      <c r="E41" s="3">
         <v>13923000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11817000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14760000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16111000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22831000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22846000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17741000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14325000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16906000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14930000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9465000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8606000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9283000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9255000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7722000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9174000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15840000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7885000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6456000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7026000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6469000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6545000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6602000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5939000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3058,316 +3147,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8218000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7522000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7674000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8280000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7349000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6103000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5797000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6516000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5770000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5111000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5029000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6284000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5612000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5382000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5342000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6283000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5785000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5002000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4568000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5614000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5865000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5395000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5252000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5835000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5344000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>64706000</v>
+      </c>
+      <c r="E44" s="3">
         <v>59921000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>61229000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>56511000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>57484000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>47754000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>46383000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>44949000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>51842000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>41084000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>41217000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>44435000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>51546000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>44134000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>44751000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>44269000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>50380000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>41985000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>43303000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>43783000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>50147000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>43442000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>43361000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>43046000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>49822000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3169000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2798000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1519000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2020000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1555000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1565000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20861000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1665000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1895000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2152000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1622000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2148000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2572000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2391000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3623000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4107000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3543000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3486000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3811000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2330000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1457000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2178000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2206000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>87680000</v>
+      </c>
+      <c r="E46" s="3">
         <v>84164000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>83220000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>81070000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>82964000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>78243000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>76591000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>90067000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>73602000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>64996000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>63328000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>61806000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>67912000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>61371000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>61739000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>61897000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>69446000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>66370000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>59242000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>59664000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>65368000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>56763000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>57336000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>57689000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>63401000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3443,162 +3547,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>115544000</v>
+      </c>
+      <c r="E48" s="3">
         <v>114392000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>113217000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>112624000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>110331000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>109598000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>108625000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>109848000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>124289000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>122894000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>123378000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>127049000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>125425000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>125862000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>125241000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>111395000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>111349000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>111017000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>114800000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>114818000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>115299000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>115353000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>114169000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>114178000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>115088000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28137000</v>
+      </c>
+      <c r="E49" s="3">
         <v>28664000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29438000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29014000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>28923000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29159000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>28872000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>28983000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30236000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29542000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29416000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31073000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>30716000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31454000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31416000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>31181000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>31044000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>17840000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>18850000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>18242000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>18204000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>18037000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>17575000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>17037000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>17792000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3787,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3867,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16295000</v>
+      </c>
+      <c r="E52" s="3">
         <v>19979000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20267000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22152000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22633000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21552000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22493000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>23598000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22736000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19950000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16770000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16567000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15777000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16174000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16148000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14822000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14744000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10835000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>12035000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11798000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10543000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>11413000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10638000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9921000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>10576000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4027,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>247656000</v>
+      </c>
+      <c r="E54" s="3">
         <v>247199000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>246142000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>244860000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>244851000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>238552000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>236581000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>252496000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>250863000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>237382000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>232892000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>236495000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>239830000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>234861000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>234544000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>219295000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>226583000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>206062000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>204927000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>204522000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>209414000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>201566000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>199718000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>198825000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>206857000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4139,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,470 +4169,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57263000</v>
+      </c>
+      <c r="E57" s="3">
         <v>54191000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>52926000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>55261000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>57156000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49601000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>48151000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49141000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>54152000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>46326000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>44096000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>46973000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>49750000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>45871000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>45110000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>47060000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>49729000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>43128000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>44612000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>46092000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>47587000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>42389000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>41367000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>41433000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>42990000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12818000</v>
+      </c>
+      <c r="E58" s="3">
         <v>16484000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15523000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3724000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2530000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2789000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4369000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3830000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5172000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6459000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10554000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6448000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9487000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8516000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6727000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7830000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>11095000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2228000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>10038000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9662000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9021000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7174000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6472000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3920000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7897000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31327000</v>
+      </c>
+      <c r="E59" s="3">
         <v>29224000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28081000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28394000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27934000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28732000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28321000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>39674000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28797000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29172000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27997000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24369000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24547000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>25896000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>28051000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22587000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>24927000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>26327000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>26107000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>22767000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>23827000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>23248000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>26354000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>21575000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>23243000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>101408000</v>
+      </c>
+      <c r="E60" s="3">
         <v>99899000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>96530000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>87379000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>87620000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>81122000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>80841000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>92645000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>88121000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>81957000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>82647000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>77790000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>83784000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>80283000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>79888000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>77477000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>85751000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>71683000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>80757000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>78521000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>80435000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>72811000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>74193000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>66928000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>74130000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38447000</v>
+      </c>
+      <c r="E61" s="3">
         <v>34221000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36583000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>39107000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>40486000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>43533000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>44075000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>45041000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>45599000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>45632000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>47480000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>48021000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>45150000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>44612000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>47441000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>46340000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>46161000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>47732000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>32330000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>32784000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>36483000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>36025000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>40025000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>42018000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>42108000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27418000</v>
+      </c>
+      <c r="E62" s="3">
         <v>27232000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27169000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26483000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25988000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26770000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>27073000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>27279000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29639000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28596000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>28655000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29132000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>32589000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>32835000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>32305000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15844000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15202000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12835000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13516000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12395000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13590000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13684000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9386000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9344000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>10144000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4727,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4807,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4887,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>175403000</v>
+      </c>
+      <c r="E66" s="3">
         <v>169630000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>169246000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>161607000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>162577000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>158023000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>158246000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>171571000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>169432000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>162072000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>164652000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>161826000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>168181000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>164534000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>166339000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>146799000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>154587000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>134877000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>129375000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>126653000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>133269000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>125177000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>126027000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>121027000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>129164000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +4999,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5077,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5157,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5237,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5317,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>77946000</v>
+      </c>
+      <c r="E72" s="3">
         <v>82519000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>80532000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>86904000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>85674000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>84572000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>82577000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>88763000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>92279000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>87614000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>81141000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>83943000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>80656000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>78432000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>76276000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>80785000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>80287000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>80810000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>82982000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>85107000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>84480000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>84838000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>84120000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>89354000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>87636000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5477,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5557,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5637,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>72253000</v>
+      </c>
+      <c r="E76" s="3">
         <v>77569000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>76896000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>83253000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>82274000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>80529000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>78335000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>80925000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>81431000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>75310000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>68240000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>74669000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>71649000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>70327000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>68205000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>72496000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>71996000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>71185000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>75552000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>77869000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>76145000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>76389000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>73691000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>77798000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>77693000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5797,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1798000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5149000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2054000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3562000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3105000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4276000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2730000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2091000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5135000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6476000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3990000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4141000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3288000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3610000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3842000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3687000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1710000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-861000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2134000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2175000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1749000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2899000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3039000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3757000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +5994,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2755000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2699000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2680000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2706000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2650000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2641000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2661000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2819000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2771000</v>
       </c>
       <c r="L83" s="3">
         <v>2771000</v>
       </c>
       <c r="M83" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="N83" s="3">
         <v>2791000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2828000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2723000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2722000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2714000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2731000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2615000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2654000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2678000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2702000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2658000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2618000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2551000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2706000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6152,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6232,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6312,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6392,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6472,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6458000</v>
+      </c>
+      <c r="E89" s="3">
         <v>12998000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3758000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7890000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3868000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9565000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4706000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>13194000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3924000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11939000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7017000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10716000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3354000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7622000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3563000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10445000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6213000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5934000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5161000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>11277000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5700000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5975000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5385000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>11892000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4850000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6584,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4569000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3953000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3539000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4518000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3569000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2805000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2214000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3826000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2869000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1817000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1752000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2940000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2894000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2205000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3330000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2732000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2464000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1818000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3143000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2485000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2433000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3980000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6320000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-10299000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6742,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +6822,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4381000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4026000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4558000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4485000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3932000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3448000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5850000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3564000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2873000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1938000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1696000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2843000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2461000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2689000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1135000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3482000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16126000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2746000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1682000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3206000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1681000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1861000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2937000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-6634000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,85 +6934,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1519000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1538000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1543000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1525000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1536000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1524000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1529000</v>
       </c>
       <c r="M96" s="3">
         <v>-1529000</v>
       </c>
       <c r="N96" s="3">
+        <v>-1529000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1503000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1509000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1530000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1533000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1510000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1526000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1539000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1549000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7092,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7172,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,235 +7252,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4181000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6715000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5315000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4715000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6554000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6160000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5399000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4777000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3526000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8379000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>565000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7086000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4685000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-846000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8458000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3441000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4966000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2486000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8459000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2785000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4659000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3972000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-7794000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-231000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-149000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>49000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-22000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-97000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>30000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-51000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>405000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-101000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>346000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-415000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>97000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-220000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-46000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>47000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-186000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-442000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>143000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>101000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-46000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>293000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>139000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-227000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2335000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2108000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2952000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1332000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6715000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5106000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5258000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2576000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1968000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5471000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>884000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-689000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>28000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1536000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1448000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6658000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7712000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1136000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-287000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>557000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-72000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-309000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>928000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1737000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>WMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,341 +665,353 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>164048000</v>
+      </c>
+      <c r="E8" s="3">
         <v>152813000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>152859000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>141569000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>152871000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>140525000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>141048000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>138310000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>152079000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>134708000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>137742000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>134622000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>141671000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>127991000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>130377000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>123925000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>138793000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>124894000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>128028000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>122690000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>136267000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>123179000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>123355000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>117542000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>130936000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>118179000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>125423000</v>
+      </c>
+      <c r="E9" s="3">
         <v>115613000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>115838000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>106847000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>115522000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>105023000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>105183000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>103272000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>115261000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>100339000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>102689000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>102026000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>107748000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>95900000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>97923000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>93034000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>104907000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>93116000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>95571000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>91707000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>102640000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>91547000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>91521000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>87688000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>97743000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>87484000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>38625000</v>
+      </c>
+      <c r="E10" s="3">
         <v>37200000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>37021000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34722000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>37349000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>35502000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35865000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>35038000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36818000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>34369000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35053000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32596000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33923000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32091000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32454000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>30891000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>33886000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>31778000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>32457000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>30983000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>33627000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>31632000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>31834000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>29854000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>33193000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>30695000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1040,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,8 +1121,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,8 +1204,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,40 +1216,40 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>3300000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2610000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1200000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1100000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8400000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1600000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1900000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1238,29 +1257,29 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>4800000</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1004000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1344000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>788000</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1268,8 +1287,11 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1348,8 +1370,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1375,168 +1400,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>158487000</v>
+      </c>
+      <c r="E17" s="3">
         <v>150118000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>145805000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>136651000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>146984000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>137143000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>133694000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>132201000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>153992000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>129930000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>131683000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>129398000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>136349000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>123273000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>124794000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>118980000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>132726000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>119908000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>127078000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>117536000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>132804000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>119759000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>118174000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>112305000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>124731000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>113060000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5561000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2695000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7054000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4918000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5887000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3382000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7354000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6109000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1913000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4778000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6059000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5224000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5322000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4718000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5583000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4945000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6067000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4986000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>950000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5154000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3463000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3420000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>5181000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>5237000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>6205000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>5119000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1565,408 +1597,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3951000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3542000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>69000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1562000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-678000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1251000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-916000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1699000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1844000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2878000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3245000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>764000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1003000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>288000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-29000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>885000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>266000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1817000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1802000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>37000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>42000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>38000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>35000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>30000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12323000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1908000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9822000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6036000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7915000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7283000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9079000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7071000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2750000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10427000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12075000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8779000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9153000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7729000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8276000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8544000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9064000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5784000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3606000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6030000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6202000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>6120000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>7837000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>7823000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>8941000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>610000</v>
+      </c>
+      <c r="E22" s="3">
         <v>584000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>479000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>455000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>427000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>486000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>515000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>566000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>524000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>541000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>658000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>592000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>652000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>633000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>641000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>673000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>669000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>593000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>554000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>530000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>536000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>583000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>613000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>598000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>585000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>609000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8902000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1431000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6644000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2901000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4782000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4147000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5923000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3844000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-593000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7115000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8646000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5396000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5673000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4373000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4913000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5157000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5664000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2576000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>398000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2822000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2964000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2879000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4606000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4674000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>5650000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>4534000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3093000</v>
+      </c>
+      <c r="E24" s="3">
         <v>336000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1497000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>798000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1149000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1015000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1559000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1033000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1415000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1914000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2207000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1322000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1379000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1052000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1233000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1251000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1343000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>806000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1002000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>688000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>801000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>975000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1502000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1522000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1664000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1332000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2045,168 +2093,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5809000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1767000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5147000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2103000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3633000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3132000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4364000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2811000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2008000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5201000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6439000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4074000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4294000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3321000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3680000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3906000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4321000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1770000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-604000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2134000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2163000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1904000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3104000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3152000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3986000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6275000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1798000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5149000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2054000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3562000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3105000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4276000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2730000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2091000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5135000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6476000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3990000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4141000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3288000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3610000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3842000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4195000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1663000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-738000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1992000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1975000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1749000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2899000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3039000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3757000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2285,8 +2342,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2317,17 +2377,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2335,23 +2395,23 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-508000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>47000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-123000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>142000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>200000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2359,14 +2419,17 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="3" t="s">
+      <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2508,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,168 +2591,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3951000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3542000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-69000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1562000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>678000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1251000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>916000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1699000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1844000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2878000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3245000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-764000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1003000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-288000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>29000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-885000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-266000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1817000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1802000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-37000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-42000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-35000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-30000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6275000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1798000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5149000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2054000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3562000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3105000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4276000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2730000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2091000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5135000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6476000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3990000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4141000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3288000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3610000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3842000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3687000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1710000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-861000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2134000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2175000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1749000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2899000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3039000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3757000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,173 +2840,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6275000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1798000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5149000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2054000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3562000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3105000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4276000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2730000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2091000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5135000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6476000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3990000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4141000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3288000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3610000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3842000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3687000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1710000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-861000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2134000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2175000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1749000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2899000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3039000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3757000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3044,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2990,88 +3075,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8625000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11587000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13923000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11817000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14760000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16111000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22831000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22846000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17741000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14325000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16906000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14930000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9465000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8606000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9283000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9255000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7722000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9174000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15840000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7885000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6456000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7026000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6469000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6545000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6602000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5939000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3150,328 +3239,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7933000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8218000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7522000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7674000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8280000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7349000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6103000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5797000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6516000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5770000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5111000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5029000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6284000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5612000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5382000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5342000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6283000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5785000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5002000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4568000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5614000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5865000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5395000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5252000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5835000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5344000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>56576000</v>
+      </c>
+      <c r="E44" s="3">
         <v>64706000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>59921000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>61229000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>56511000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>57484000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>47754000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>46383000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>44949000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>51842000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>41084000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>41217000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>44435000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>51546000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>44134000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>44751000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>44269000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>50380000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>41985000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>43303000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>43783000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>50147000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>43442000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>43361000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>43046000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>49822000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2521000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3169000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2798000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1519000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2020000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1555000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1565000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20861000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1665000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1895000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2152000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1622000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2148000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2572000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2391000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3623000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4107000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3543000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3486000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3811000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2330000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1457000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2178000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2206000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>75655000</v>
+      </c>
+      <c r="E46" s="3">
         <v>87680000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>84164000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>83220000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>81070000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>82964000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>78243000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>76591000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>90067000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>73602000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>64996000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>63328000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>61806000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>67912000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>61371000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>61739000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>61897000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>69446000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>66370000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>59242000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>59664000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>65368000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>56763000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>57336000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>57689000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>63401000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3550,168 +3654,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>119234000</v>
+      </c>
+      <c r="E48" s="3">
         <v>115544000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>114392000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>113217000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>112624000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>110331000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>109598000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>108625000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>109848000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>124289000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>122894000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>123378000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>127049000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>125425000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>125862000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>125241000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>111395000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>111349000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>111017000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>114800000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>114818000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>115299000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>115353000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>114169000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>114178000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>115088000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28174000</v>
+      </c>
+      <c r="E49" s="3">
         <v>28137000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>28664000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29438000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29014000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>28923000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29159000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>28872000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28983000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>30236000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29542000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29416000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31073000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>30716000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31454000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>31416000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>31181000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>31044000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>17840000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>18850000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>18242000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>18204000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>18037000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>17575000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>17037000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>17792000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +3903,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3870,88 +3986,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20134000</v>
+      </c>
+      <c r="E52" s="3">
         <v>16295000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19979000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20267000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22152000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22633000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>21552000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22493000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23598000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>22736000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19950000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16770000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16567000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15777000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16174000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16148000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14822000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14744000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10835000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>12035000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11798000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10543000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>11413000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10638000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>9921000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>10576000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4030,88 +4152,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>243197000</v>
+      </c>
+      <c r="E54" s="3">
         <v>247656000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>247199000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>246142000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>244860000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>244851000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>238552000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>236581000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>252496000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>250863000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>237382000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>232892000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>236495000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>239830000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>234861000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>234544000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>219295000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>226583000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>206062000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>204927000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>204522000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>209414000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>201566000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>199718000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>198825000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>206857000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4140,8 +4268,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,488 +4299,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53742000</v>
+      </c>
+      <c r="E57" s="3">
         <v>57263000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>54191000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>52926000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>55261000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>57156000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49601000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>48151000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49141000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>54152000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>46326000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>44096000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>46973000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>49750000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>45871000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>45110000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>47060000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>49729000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>43128000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>44612000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>46092000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>47587000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>42389000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>41367000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>41433000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>42990000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5130000</v>
+      </c>
+      <c r="E58" s="3">
         <v>12818000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16484000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15523000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3724000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2530000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2789000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4369000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3830000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5172000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6459000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10554000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6448000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9487000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8516000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6727000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7830000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>11095000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2228000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10038000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9662000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9021000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7174000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6472000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3920000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>7897000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33326000</v>
+      </c>
+      <c r="E59" s="3">
         <v>31327000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>29224000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28081000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28394000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27934000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28732000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>28321000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39674000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28797000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29172000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27997000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24369000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>24547000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>25896000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>28051000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>22587000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>24927000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>26327000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>26107000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>22767000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>23827000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>23248000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>26354000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>21575000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>23243000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>92198000</v>
+      </c>
+      <c r="E60" s="3">
         <v>101408000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>99899000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>96530000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>87379000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>87620000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>81122000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>80841000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>92645000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>88121000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>81957000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>82647000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>77790000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>83784000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>80283000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>79888000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>77477000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>85751000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>71683000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>80757000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>78521000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>80435000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>72811000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>74193000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>66928000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>74130000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39492000</v>
+      </c>
+      <c r="E61" s="3">
         <v>38447000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>34221000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36583000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>39107000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>40486000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>43533000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>44075000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>45041000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>45599000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>45632000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>47480000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>48021000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>45150000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>44612000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>47441000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>46340000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>46161000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>47732000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>32330000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>32784000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>36483000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>36025000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>40025000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>42018000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>42108000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27516000</v>
+      </c>
+      <c r="E62" s="3">
         <v>27418000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27232000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>27169000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26483000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25988000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>26770000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>27073000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27279000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29639000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>28596000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>28655000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>29132000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>32589000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>32835000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>32305000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15844000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15202000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12835000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13516000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12395000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13590000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>13684000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9386000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9344000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>10144000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4730,8 +4878,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4810,8 +4961,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4890,88 +5044,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>166504000</v>
+      </c>
+      <c r="E66" s="3">
         <v>175403000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>169630000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>169246000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>161607000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>162577000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>158023000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>158246000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>171571000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>169432000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>162072000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>164652000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>161826000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>168181000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>164534000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>166339000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>146799000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>154587000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>134877000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>129375000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>126653000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>133269000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>125177000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>126027000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>121027000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>129164000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5000,8 +5160,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5080,8 +5241,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5160,8 +5324,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5240,8 +5407,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5320,88 +5490,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>83135000</v>
+      </c>
+      <c r="E72" s="3">
         <v>77946000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>82519000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>80532000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>86904000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>85674000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>84572000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>82577000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>88763000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>92279000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>87614000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>81141000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>83943000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>80656000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>78432000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>76276000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>80785000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>80287000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>80810000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>82982000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>85107000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>84480000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>84838000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>84120000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>89354000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>87636000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,8 +5656,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5560,8 +5739,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5640,88 +5822,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>76693000</v>
+      </c>
+      <c r="E76" s="3">
         <v>72253000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>77569000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>76896000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>83253000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>82274000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>80529000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>78335000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>80925000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>81431000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>75310000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>68240000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>74669000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>71649000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>70327000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>68205000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>72496000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>71996000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>71185000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>75552000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>77869000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>76145000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>76389000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>73691000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>77798000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>77693000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5800,173 +5988,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6275000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1798000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5149000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2054000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3562000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3105000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4276000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2730000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2091000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5135000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6476000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3990000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4141000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3288000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3610000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3842000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3687000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1710000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-861000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2134000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2175000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1749000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2899000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3039000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3757000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5995,88 +6192,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2811000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2755000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2699000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2680000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2706000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2650000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2641000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2661000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2819000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2771000</v>
       </c>
       <c r="M83" s="3">
         <v>2771000</v>
       </c>
       <c r="N83" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="O83" s="3">
         <v>2791000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2828000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2723000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2722000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2714000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2731000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2615000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2654000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2678000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2702000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2658000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2618000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2551000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>2706000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6155,8 +6356,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6235,8 +6439,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6315,8 +6522,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6605,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6475,88 +6688,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13143000</v>
+      </c>
+      <c r="E89" s="3">
         <v>6458000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12998000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3758000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7890000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3868000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9565000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4706000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13194000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3924000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11939000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7017000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10716000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3354000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7622000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3563000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10445000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6213000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5934000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5161000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>11277000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5700000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5975000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5385000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>11892000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>4850000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6585,88 +6804,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4796000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4569000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3953000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3539000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4518000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3569000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2805000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2214000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3826000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2869000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1817000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1752000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2940000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2894000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2205000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3330000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2732000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2464000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1818000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3143000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2485000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2433000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3980000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-6320000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-10299000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6745,8 +6968,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6825,88 +7051,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4757000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4381000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4026000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4558000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4485000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3932000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3448000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5850000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3564000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2873000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1938000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1696000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2843000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2461000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2689000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1135000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3482000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16126000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2746000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1682000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3206000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1681000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1861000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2937000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-6634000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6935,88 +7167,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1514000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1538000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1543000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1525000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1536000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1524000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1529000</v>
       </c>
       <c r="N96" s="3">
         <v>-1529000</v>
       </c>
       <c r="O96" s="3">
+        <v>-1529000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1503000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1509000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1530000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1533000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1510000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1526000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1539000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1549000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7095,8 +7331,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,8 +7414,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7255,244 +7497,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11458000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4181000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6715000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5315000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4715000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6554000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6160000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5399000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4777000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3526000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8379000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>565000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7086000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4685000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-846000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8458000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3441000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4966000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2486000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-8459000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2785000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4659000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3972000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-7794000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-231000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-149000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>49000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-22000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-97000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>30000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-51000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>405000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-101000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>346000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-415000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>97000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-220000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-46000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>47000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-186000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-442000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>143000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>101000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-46000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>293000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>139000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-227000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2814000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2335000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2108000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2952000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1332000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6715000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5106000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5258000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2576000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1968000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5471000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>884000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-689000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>28000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1536000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1448000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6658000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7712000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1136000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-287000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>557000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-72000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-309000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>928000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1737000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>WMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,353 +665,365 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>152301000</v>
+      </c>
+      <c r="E8" s="3">
         <v>164048000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>152813000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>152859000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>141569000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>152871000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>140525000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>141048000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>138310000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>152079000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>134708000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>137742000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>134622000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>141671000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>127991000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>130377000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>123925000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>138793000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>124894000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>128028000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>122690000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>136267000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>123179000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>123355000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>117542000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>130936000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>118179000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>115284000</v>
+      </c>
+      <c r="E9" s="3">
         <v>125423000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>115613000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>115838000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>106847000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>115522000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>105023000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>105183000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>103272000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>115261000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>100339000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>102689000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>102026000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>107748000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>95900000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>97923000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>93034000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>104907000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>93116000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>95571000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>91707000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>102640000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>91547000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>91521000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>87688000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>97743000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>87484000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>37017000</v>
+      </c>
+      <c r="E10" s="3">
         <v>38625000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>37200000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>37021000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34722000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>37349000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35502000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>35865000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35038000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36818000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>34369000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35053000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32596000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33923000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32091000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>32454000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>30891000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>33886000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>31778000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>32457000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>30983000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>33627000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>31632000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>31834000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>29854000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>33193000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>30695000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1053,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1124,8 +1137,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,52 +1223,55 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>3300000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-200000</v>
       </c>
-      <c r="G14" s="3">
-        <v>400000</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>500000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2610000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1200000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8400000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1600000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1900000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>900000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1260,29 +1279,29 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>4800000</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1004000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1344000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>788000</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
@@ -1290,8 +1309,11 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1373,8 +1395,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1401,174 +1426,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>146061000</v>
+      </c>
+      <c r="E17" s="3">
         <v>158487000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>150118000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>145805000</v>
       </c>
-      <c r="G17" s="3">
-        <v>136651000</v>
-      </c>
       <c r="H17" s="3">
+        <v>136251000</v>
+      </c>
+      <c r="I17" s="3">
         <v>146984000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>137143000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>133694000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>132201000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>153992000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>129930000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>131683000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>129398000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>136349000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>123273000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>124794000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>118980000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>132726000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>119908000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>127078000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>117536000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>132804000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>119759000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>118174000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>112305000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>124731000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>113060000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6240000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5561000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2695000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7054000</v>
       </c>
-      <c r="G18" s="3">
-        <v>4918000</v>
-      </c>
       <c r="H18" s="3">
+        <v>5318000</v>
+      </c>
+      <c r="I18" s="3">
         <v>5887000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3382000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7354000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6109000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1913000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4778000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6059000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5224000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5322000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4718000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5583000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4945000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6067000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4986000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>950000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5154000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3463000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3420000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>5181000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>5237000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>6205000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>5119000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1598,423 +1630,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2888000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3951000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3542000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>69000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-1562000</v>
-      </c>
       <c r="H20" s="3">
+        <v>-1962000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-678000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1251000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-916000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1699000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1844000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2878000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3245000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>764000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1003000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>288000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-29000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>885000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>266000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1817000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1802000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>37000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>42000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>38000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>35000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>30000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6197000</v>
+      </c>
+      <c r="E21" s="3">
         <v>12323000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1908000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9822000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6036000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7915000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7283000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9079000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7071000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2750000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10427000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12075000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8779000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9153000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7729000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8276000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8544000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9064000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5784000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3606000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6030000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>6202000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>6120000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>7837000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>7823000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>8941000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>664000</v>
+      </c>
+      <c r="E22" s="3">
         <v>610000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>584000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>479000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>455000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>427000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>486000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>515000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>566000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>524000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>541000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>658000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>592000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>652000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>633000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>641000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>673000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>669000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>593000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>554000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>530000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>536000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>583000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>613000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>598000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>585000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>609000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2688000</v>
+      </c>
+      <c r="E23" s="3">
         <v>8902000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1431000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6644000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2901000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4782000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4147000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5923000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3844000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-593000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7115000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8646000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5396000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5673000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4373000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4913000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5157000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5664000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2576000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>398000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2822000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2964000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2879000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4606000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4674000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>5650000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>4534000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>792000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3093000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>336000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1497000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>798000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1149000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1015000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1559000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1033000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1415000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1914000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2207000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1322000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1379000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1052000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1233000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1251000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1343000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>806000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1002000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>688000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>801000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>975000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1502000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1522000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1664000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1332000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,174 +2144,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1896000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5809000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1767000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5147000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2103000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3633000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3132000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4364000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2811000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2008000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5201000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6439000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4074000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4294000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3321000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3680000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3906000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4321000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1770000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-604000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2134000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2163000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1904000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3104000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3152000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3986000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1673000</v>
+      </c>
+      <c r="E27" s="3">
         <v>6275000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1798000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5149000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2054000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3562000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3105000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4276000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2730000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2091000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5135000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6476000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3990000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4141000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3288000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3610000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3842000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4195000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1663000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-738000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1992000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1975000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1749000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2899000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3039000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3757000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2345,8 +2402,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2380,17 +2440,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2398,23 +2458,23 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-508000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>47000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-123000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>142000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>200000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2422,14 +2482,17 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="3" t="s">
+      <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2511,8 +2574,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,174 +2660,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2888000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3951000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3542000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-69000</v>
       </c>
-      <c r="G32" s="3">
-        <v>1562000</v>
-      </c>
       <c r="H32" s="3">
+        <v>1962000</v>
+      </c>
+      <c r="I32" s="3">
         <v>678000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1251000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>916000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1699000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1844000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2878000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3245000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-764000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1003000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-288000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>29000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-885000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-266000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1817000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1802000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-37000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-42000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-35000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-30000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1673000</v>
+      </c>
+      <c r="E33" s="3">
         <v>6275000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1798000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5149000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2054000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3562000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3105000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4276000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2730000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2091000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5135000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6476000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3990000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4141000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3288000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3610000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3842000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3687000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1710000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-861000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2134000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2175000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1749000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2899000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3039000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3757000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,179 +2918,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1673000</v>
+      </c>
+      <c r="E35" s="3">
         <v>6275000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1798000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5149000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2054000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3562000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3105000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4276000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2730000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2091000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5135000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6476000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3990000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4141000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3288000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3610000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3842000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3687000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1710000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-861000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2134000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2175000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1749000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2899000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3039000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3757000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3045,8 +3129,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3076,91 +3161,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10575000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8625000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11587000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13923000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11817000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14760000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16111000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22831000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22846000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17741000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14325000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16906000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14930000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9465000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8606000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9283000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9255000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7722000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9174000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15840000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7885000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6456000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7026000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6469000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6545000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6602000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5939000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3242,340 +3331,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7647000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7933000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8218000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7522000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7674000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8280000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7349000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6103000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5797000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6516000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5770000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5111000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5029000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6284000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5612000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5382000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5342000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6283000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5785000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5002000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4568000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5614000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5865000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5395000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5252000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5835000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>5344000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>56932000</v>
+      </c>
+      <c r="E44" s="3">
         <v>56576000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>64706000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>59921000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>61229000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>56511000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>57484000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>47754000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>46383000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>44949000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>51842000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>41084000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>41217000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>44435000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>51546000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>44134000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>44751000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>44269000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>50380000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>41985000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>43303000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>43783000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>50147000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>43442000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>43361000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>43046000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>49822000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3357000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2521000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3169000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2798000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1519000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2020000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1555000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1565000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20861000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1665000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1895000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2152000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1622000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2148000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2572000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2391000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3623000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4107000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3543000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3486000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3811000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2330000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1457000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2178000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2206000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>78511000</v>
+      </c>
+      <c r="E46" s="3">
         <v>75655000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>87680000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>84164000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>83220000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>81070000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>82964000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>78243000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>76591000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>90067000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>73602000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>64996000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>63328000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>61806000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>67912000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>61371000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>61739000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>61897000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>69446000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>66370000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>59242000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>59664000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>65368000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>56763000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>57336000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>57689000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>63401000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3657,174 +3761,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>121138000</v>
+      </c>
+      <c r="E48" s="3">
         <v>119234000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>115544000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>114392000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>113217000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>112624000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>110331000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>109598000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>108625000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>109848000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>124289000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>122894000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>123378000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>127049000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>125425000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>125862000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>125241000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>111395000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>111349000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>111017000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>114800000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>114818000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>115299000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>115353000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>114169000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>114178000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>115088000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28306000</v>
+      </c>
+      <c r="E49" s="3">
         <v>28174000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>28137000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>28664000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29438000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29014000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>28923000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29159000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28872000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28983000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>30236000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29542000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>29416000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31073000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>30716000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>31454000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>31416000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>31181000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>31044000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>17840000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>18850000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>18242000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>18204000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>18037000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>17575000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>17037000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>17792000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4019,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3989,91 +4105,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17098000</v>
+      </c>
+      <c r="E52" s="3">
         <v>20134000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16295000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19979000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20267000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22152000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22633000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>21552000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22493000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23598000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>22736000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19950000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16770000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16567000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15777000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16174000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16148000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14822000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>14744000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10835000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>12035000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>11798000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10543000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>11413000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>10638000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>9921000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>10576000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4155,91 +4277,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>245053000</v>
+      </c>
+      <c r="E54" s="3">
         <v>243197000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>247656000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>247199000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>246142000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>244860000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>244851000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>238552000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>236581000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>252496000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>250863000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>237382000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>232892000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>236495000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>239830000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>234861000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>234544000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>219295000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>226583000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>206062000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>204927000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>204522000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>209414000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>201566000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>199718000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>198825000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>206857000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4269,8 +4397,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4300,506 +4429,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>54268000</v>
+      </c>
+      <c r="E57" s="3">
         <v>53742000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57263000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54191000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>52926000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>55261000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>57156000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49601000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>48151000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>49141000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>54152000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>46326000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>44096000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>46973000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>49750000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>45871000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>45110000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>47060000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>49729000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>43128000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>44612000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>46092000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>47587000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>42389000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>41367000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>41433000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>42990000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6293000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5130000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12818000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16484000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15523000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3724000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2530000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2789000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4369000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3830000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5172000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6459000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10554000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6448000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9487000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8516000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6727000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7830000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>11095000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2228000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10038000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9662000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>9021000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7174000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6472000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3920000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>7897000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34944000</v>
+      </c>
+      <c r="E59" s="3">
         <v>33326000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31327000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29224000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28081000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28394000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27934000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>28732000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28321000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39674000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28797000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>29172000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>27997000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>24369000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>24547000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>25896000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>28051000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>22587000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>24927000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>26327000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>26107000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>22767000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>23827000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>23248000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>26354000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>21575000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>23243000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>95505000</v>
+      </c>
+      <c r="E60" s="3">
         <v>92198000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>101408000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>99899000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>96530000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>87379000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>87620000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>81122000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>80841000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>92645000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>88121000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>81957000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>82647000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>77790000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>83784000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>80283000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>79888000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>77477000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>85751000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>71683000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>80757000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>78521000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>80435000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>72811000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>74193000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>66928000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>74130000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>43159000</v>
+      </c>
+      <c r="E61" s="3">
         <v>39492000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>38447000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>34221000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36583000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>39107000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>40486000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>43533000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44075000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>45041000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>45599000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>45632000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>47480000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>48021000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>45150000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>44612000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>47441000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>46340000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>46161000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>47732000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>32330000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>32784000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>36483000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>36025000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>40025000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>42018000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>42108000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26924000</v>
+      </c>
+      <c r="E62" s="3">
         <v>27516000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27418000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>27232000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>27169000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26483000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25988000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>26770000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27073000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27279000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29639000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>28596000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>28655000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29132000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>32589000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>32835000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>32305000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15844000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15202000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12835000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13516000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>12395000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>13590000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>13684000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9386000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9344000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>10144000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4881,8 +5029,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4964,8 +5115,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5047,91 +5201,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>172648000</v>
+      </c>
+      <c r="E66" s="3">
         <v>166504000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>175403000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>169630000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>169246000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>161607000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>162577000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>158023000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>158246000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>171571000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>169432000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>162072000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>164652000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>161826000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>168181000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>164534000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>166339000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>146799000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>154587000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>134877000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>129375000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>126653000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>133269000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>125177000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>126027000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>121027000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>129164000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,8 +5321,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5244,8 +5405,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5327,8 +5491,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5410,8 +5577,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,91 +5663,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>78035000</v>
+      </c>
+      <c r="E72" s="3">
         <v>83135000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>77946000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>82519000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>80532000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>86904000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>85674000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>84572000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>82577000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>88763000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>92279000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>87614000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>81141000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>83943000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>80656000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>78432000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>76276000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>80785000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>80287000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>80810000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>82982000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>85107000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>84480000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>84838000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>84120000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>89354000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>87636000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5659,8 +5835,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +5921,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,91 +6007,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>72405000</v>
+      </c>
+      <c r="E76" s="3">
         <v>76693000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>72253000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>77569000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>76896000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>83253000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>82274000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>80529000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>78335000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>80925000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>81431000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>75310000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>68240000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>74669000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>71649000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>70327000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>68205000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>72496000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>71996000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>71185000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>75552000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>77869000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>76145000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>76389000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>73691000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>77798000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>77693000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5991,179 +6179,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1673000</v>
+      </c>
+      <c r="E81" s="3">
         <v>6275000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1798000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5149000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2054000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3562000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3105000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4276000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2730000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2091000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5135000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6476000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3990000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4141000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3288000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3610000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3842000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3687000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1710000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-861000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2134000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2175000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1749000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2899000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3039000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3757000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6193,91 +6390,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2845000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2811000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2755000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2699000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2680000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2706000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2650000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2641000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2661000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2819000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2771000</v>
       </c>
       <c r="N83" s="3">
         <v>2771000</v>
       </c>
       <c r="O83" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="P83" s="3">
         <v>2791000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2828000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2723000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2722000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2714000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2731000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2615000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2654000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2678000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2702000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2658000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2618000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>2551000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>2706000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6359,8 +6560,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6442,8 +6646,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6525,8 +6732,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6608,8 +6818,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6691,91 +6904,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4633000</v>
+      </c>
+      <c r="E89" s="3">
         <v>13143000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6458000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12998000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3758000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7890000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3868000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9565000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4706000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13194000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3924000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11939000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7017000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10716000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3354000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7622000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3563000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>10445000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6213000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5934000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5161000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>11277000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5700000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5975000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>5385000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>11892000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>4850000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6805,91 +7024,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4429000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4796000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4569000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3953000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3539000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4518000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3569000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2805000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2214000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3826000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2869000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1817000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1752000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2940000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2894000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2205000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3330000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2732000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2464000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1818000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3143000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2485000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2433000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3980000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-6320000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-10299000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6971,8 +7194,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7054,91 +7280,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4860000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4757000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4381000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4026000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4558000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4485000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3932000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3448000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5850000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3564000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2873000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1938000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1696000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2843000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2461000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2689000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1135000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3482000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16126000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2746000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1682000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3206000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1681000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1861000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2937000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-6634000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7168,91 +7400,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1538000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1514000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1538000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1543000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1525000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1536000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1524000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1529000</v>
       </c>
       <c r="O96" s="3">
         <v>-1529000</v>
       </c>
       <c r="P96" s="3">
+        <v>-1529000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1503000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1509000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1530000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1533000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1510000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1526000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1539000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-1549000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7334,8 +7570,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7417,8 +7656,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7500,253 +7742,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1940000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11458000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4181000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6715000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5315000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4715000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6554000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6160000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5399000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4777000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3526000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8379000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>565000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7086000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4685000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-846000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8458000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3441000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4966000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2486000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-8459000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2785000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-4659000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3972000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-7794000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E101" s="3">
         <v>258000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-231000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-149000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>49000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-22000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-97000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>30000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-51000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>405000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-101000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>346000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-415000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>97000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-220000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-46000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>47000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-186000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-442000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>143000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>101000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-46000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>293000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>139000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-227000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1867000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2814000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2335000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2108000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2952000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1332000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6715000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5106000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5258000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2576000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1968000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5471000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>884000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-689000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>28000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1536000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1448000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6658000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7712000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1136000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-287000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>557000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-72000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-309000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>928000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1737000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>WMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,365 +665,377 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>161632000</v>
+      </c>
+      <c r="E8" s="3">
         <v>152301000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>164048000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>152813000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>152859000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>141569000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>152871000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>140525000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>141048000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>138310000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>152079000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>134708000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>137742000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>134622000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>141671000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>127991000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>130377000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>123925000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>138793000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>124894000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>128028000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>122690000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>136267000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>123179000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>123355000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>117542000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>130936000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>118179000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>121850000</v>
+      </c>
+      <c r="E9" s="3">
         <v>115284000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>125423000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>115613000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>115838000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>106847000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>115522000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>105023000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>105183000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>103272000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>115261000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>100339000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>102689000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>102026000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>107748000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>95900000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>97923000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>93034000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>104907000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>93116000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>95571000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>91707000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>102640000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>91547000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>91521000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>87688000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>97743000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>87484000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>39782000</v>
+      </c>
+      <c r="E10" s="3">
         <v>37017000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38625000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>37200000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>37021000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>34722000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>37349000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>35502000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35865000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35038000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>36818000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>34369000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35053000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32596000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33923000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>32091000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>32454000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>30891000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>33886000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>31778000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>32457000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>30983000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>33627000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>31632000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>31834000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>29854000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>33193000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>30695000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1066,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1140,8 +1153,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,55 +1242,58 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>3300000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-200000</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2610000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1100000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8400000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1600000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1900000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>900000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1282,29 +1301,29 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>4800000</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1004000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1344000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>788000</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>8</v>
@@ -1312,8 +1331,11 @@
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1398,8 +1420,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1427,180 +1452,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>154316000</v>
+      </c>
+      <c r="E17" s="3">
         <v>146061000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>158487000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>150118000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>145805000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>136251000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>146984000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>137143000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>133694000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>132201000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>153992000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>129930000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>131683000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>129398000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>136349000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>123273000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>124794000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>118980000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>132726000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>119908000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>127078000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>117536000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>132804000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>119759000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>118174000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>112305000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>124731000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>113060000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7316000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6240000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5561000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2695000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7054000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5318000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5887000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3382000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7354000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6109000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1913000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4778000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6059000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5224000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5322000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4718000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5583000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4945000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6067000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4986000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>950000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5154000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3463000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3420000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>5181000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>5237000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>6205000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>5119000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1631,438 +1663,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4053000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2888000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3951000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3542000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>69000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1962000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-678000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1251000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-916000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1699000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1844000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2878000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3245000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>764000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1003000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>288000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-29000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>885000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>266000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1817000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1802000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>37000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>42000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>38000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>35000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>30000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14274000</v>
+      </c>
+      <c r="E21" s="3">
         <v>6197000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12323000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1908000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9822000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6036000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7915000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7283000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9079000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7071000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2750000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10427000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12075000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8779000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9153000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7729000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8276000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8544000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9064000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5784000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3606000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>6030000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>6202000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>6120000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>7837000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>7823000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>8941000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>642000</v>
+      </c>
+      <c r="E22" s="3">
         <v>664000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>610000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>584000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>479000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>455000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>427000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>486000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>515000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>566000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>524000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>541000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>658000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>592000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>652000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>633000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>641000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>673000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>669000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>593000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>554000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>530000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>536000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>583000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>613000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>598000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>585000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>609000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10727000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2688000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8902000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1431000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6644000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2901000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4782000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4147000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5923000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3844000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-593000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7115000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8646000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5396000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5673000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4373000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4913000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5157000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5664000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2576000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>398000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2822000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2964000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2879000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4606000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>4674000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>5650000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>4534000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2674000</v>
+      </c>
+      <c r="E24" s="3">
         <v>792000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3093000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>336000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1497000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>798000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1149000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1015000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1559000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1033000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1415000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1914000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2207000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1322000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1379000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1052000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1233000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1251000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1343000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>806000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1002000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>688000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>801000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>975000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1502000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1522000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1664000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1332000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2147,180 +2195,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8053000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1896000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5809000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1767000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5147000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2103000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3633000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3132000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4364000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2811000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2008000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5201000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6439000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4074000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4294000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3321000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3680000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3906000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4321000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1770000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-604000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2134000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2163000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1904000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3104000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3152000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>3986000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7891000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1673000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6275000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1798000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5149000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2054000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3562000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3105000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4276000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2730000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2091000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5135000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6476000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3990000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4141000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3288000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3610000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3842000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4195000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1663000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-738000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1992000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1975000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1749000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2899000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3039000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>3757000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2405,8 +2462,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2443,17 +2503,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2461,23 +2521,23 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-508000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>47000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-123000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>142000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>200000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2485,14 +2545,17 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="3" t="s">
+      <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2577,8 +2640,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2663,180 +2729,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4053000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2888000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3951000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3542000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-69000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1962000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>678000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1251000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>916000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1699000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1844000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2878000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3245000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-764000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1003000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-288000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>29000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-885000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-266000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1817000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1802000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-37000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-42000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-38000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-35000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-30000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7891000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1673000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6275000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1798000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5149000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2054000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3562000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3105000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4276000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2730000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2091000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5135000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6476000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3990000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4141000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3288000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3610000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3842000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3687000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1710000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-861000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2134000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2175000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1749000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2899000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3039000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>3757000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2921,185 +2996,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7891000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1673000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6275000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1798000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5149000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2054000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3562000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3105000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4276000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2730000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2091000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5135000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6476000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3990000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4141000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3288000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3610000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3842000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3687000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1710000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-861000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2134000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2175000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1749000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2899000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3039000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>3757000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3130,8 +3214,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3162,94 +3247,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13888000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10575000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8625000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11587000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13923000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11817000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14760000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16111000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22831000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22846000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17741000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14325000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16906000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14930000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9465000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8606000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9283000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9255000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7722000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9174000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15840000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7885000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6456000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7026000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6469000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6545000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6602000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>5939000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3334,352 +3423,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7891000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7647000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7933000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8218000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7522000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7674000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8280000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7349000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6103000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5797000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6516000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5770000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5111000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5029000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6284000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5612000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5382000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5342000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6283000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5785000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5002000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4568000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5614000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5865000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5395000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5252000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>5835000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>5344000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>56722000</v>
+      </c>
+      <c r="E44" s="3">
         <v>56932000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>56576000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>64706000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>59921000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>61229000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>56511000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>57484000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>47754000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>46383000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>44949000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>51842000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>41084000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>41217000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>44435000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>51546000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>44134000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>44751000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>44269000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>50380000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>41985000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>43303000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>43783000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>50147000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>43442000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>43361000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>43046000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>49822000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3531000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3357000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2521000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3169000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2798000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2500000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1519000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2020000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1555000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1565000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20861000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1665000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1895000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2152000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1622000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2148000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2572000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2391000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3623000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4107000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3543000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3486000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3811000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2330000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1457000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2178000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2206000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>2296000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>82032000</v>
+      </c>
+      <c r="E46" s="3">
         <v>78511000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>75655000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>87680000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>84164000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>83220000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>81070000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>82964000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>78243000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>76591000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>90067000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>73602000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>64996000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>63328000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>61806000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>67912000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>61371000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>61739000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>61897000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>69446000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>66370000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>59242000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>59664000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>65368000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>56763000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>57336000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>57689000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>63401000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3764,180 +3868,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>123995000</v>
+      </c>
+      <c r="E48" s="3">
         <v>121138000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>119234000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>115544000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>114392000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>113217000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>112624000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>110331000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>109598000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>108625000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>109848000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>124289000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>122894000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>123378000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>127049000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>125425000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>125862000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>125241000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>111395000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>111349000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>111017000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>114800000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>114818000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>115299000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>115353000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>114169000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>114178000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>115088000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28268000</v>
+      </c>
+      <c r="E49" s="3">
         <v>28306000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>28174000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>28137000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>28664000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29438000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29014000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>28923000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29159000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28872000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>28983000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>30236000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>29542000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>29416000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31073000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>30716000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>31454000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>31416000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>31181000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>31044000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>17840000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>18850000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>18242000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>18204000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>18037000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>17575000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>17037000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>17792000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4022,8 +4135,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4108,94 +4224,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20826000</v>
+      </c>
+      <c r="E52" s="3">
         <v>17098000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20134000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16295000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19979000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20267000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22152000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22633000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21552000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>22493000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>23598000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22736000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>19950000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16770000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16567000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>15777000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16174000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>16148000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>14822000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>14744000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10835000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>12035000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>11798000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10543000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>11413000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>10638000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>9921000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>10576000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4280,94 +4402,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>255121000</v>
+      </c>
+      <c r="E54" s="3">
         <v>245053000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>243197000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>247656000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>247199000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>246142000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>244860000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>244851000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>238552000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>236581000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>252496000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>250863000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>237382000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>232892000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>236495000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>239830000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>234861000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>234544000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>219295000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>226583000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>206062000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>204927000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>204522000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>209414000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>201566000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>199718000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>198825000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>206857000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4398,8 +4526,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4430,524 +4559,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>56576000</v>
+      </c>
+      <c r="E57" s="3">
         <v>54268000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>53742000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>57263000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>54191000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>52926000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>55261000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>57156000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49601000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>48151000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>49141000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>54152000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>46326000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>44096000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>46973000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>49750000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>45871000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>45110000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>47060000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>49729000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>43128000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>44612000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>46092000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>47587000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>42389000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>41367000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>41433000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>42990000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8096000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6293000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5130000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12818000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>16484000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15523000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3724000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2530000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2789000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4369000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3830000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5172000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6459000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10554000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6448000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9487000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8516000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6727000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7830000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>11095000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2228000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>10038000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>9662000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>9021000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7174000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>6472000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3920000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>7897000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34548000</v>
+      </c>
+      <c r="E59" s="3">
         <v>34944000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>33326000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31327000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29224000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28081000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28394000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27934000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28732000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28321000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39674000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28797000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>29172000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>27997000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>24369000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>24547000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>25896000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>28051000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>22587000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>24927000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>26327000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>26107000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>22767000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>23827000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>23248000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>26354000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>21575000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>23243000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>99220000</v>
+      </c>
+      <c r="E60" s="3">
         <v>95505000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>92198000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>101408000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>99899000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>96530000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>87379000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>87620000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>81122000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>80841000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>92645000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>88121000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>81957000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>82647000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>77790000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>83784000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>80283000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>79888000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>77477000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>85751000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>71683000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>80757000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>78521000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>80435000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>72811000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>74193000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>66928000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>74130000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>42255000</v>
+      </c>
+      <c r="E61" s="3">
         <v>43159000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39492000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38447000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>34221000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>36583000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>39107000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>40486000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43533000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44075000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>45041000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>45599000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>45632000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>47480000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>48021000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>45150000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>44612000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>47441000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>46340000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>46161000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>47732000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>32330000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>32784000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>36483000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>36025000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>40025000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>42018000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>42108000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28087000</v>
+      </c>
+      <c r="E62" s="3">
         <v>26924000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27516000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>27418000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>27232000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>27169000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>26483000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25988000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26770000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27073000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27279000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29639000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>28596000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>28655000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29132000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>32589000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>32835000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>32305000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15844000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15202000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12835000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13516000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12395000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>13590000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>13684000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9386000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9344000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>10144000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5032,8 +5180,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5118,8 +5269,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5204,94 +5358,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>175565000</v>
+      </c>
+      <c r="E66" s="3">
         <v>172648000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>166504000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>175403000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>169630000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>169246000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>161607000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>162577000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>158023000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>158246000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>171571000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>169432000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>162072000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>164652000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>161826000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>168181000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>164534000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>166339000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>146799000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>154587000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>134877000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>129375000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>126653000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>133269000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>125177000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>126027000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>121027000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>129164000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5322,8 +5482,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5408,8 +5569,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5494,8 +5658,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5580,8 +5747,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5666,94 +5836,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>85470000</v>
+      </c>
+      <c r="E72" s="3">
         <v>78035000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>83135000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>77946000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>82519000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>80532000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>86904000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>85674000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>84572000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>82577000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>88763000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>92279000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>87614000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>81141000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>83943000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>80656000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>78432000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>76276000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>80785000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>80287000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>80810000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>82982000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>85107000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>84480000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>84838000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>84120000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>89354000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>87636000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5838,8 +6014,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5924,8 +6103,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6010,94 +6192,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>79556000</v>
+      </c>
+      <c r="E76" s="3">
         <v>72405000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>76693000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>72253000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>77569000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>76896000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>83253000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>82274000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>80529000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>78335000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>80925000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>81431000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>75310000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>68240000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>74669000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>71649000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>70327000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>68205000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>72496000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>71996000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>71185000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>75552000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>77869000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>76145000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>76389000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>73691000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>77798000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>77693000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6182,185 +6370,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7891000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1673000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6275000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1798000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5149000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2054000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3562000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3105000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4276000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2730000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2091000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5135000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6476000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3990000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4141000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3288000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3610000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3842000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3687000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1710000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-861000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2134000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2175000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1749000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2899000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3039000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>3757000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>3034000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6391,94 +6588,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2905000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2845000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2811000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2755000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2699000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2680000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2706000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2650000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2641000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2661000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2819000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2771000</v>
       </c>
       <c r="O83" s="3">
         <v>2771000</v>
       </c>
       <c r="P83" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2791000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2828000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2723000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2722000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2714000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2731000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2615000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2654000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2678000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2702000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2658000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>2618000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>2551000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>2706000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6563,8 +6764,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6649,8 +6853,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6735,8 +6942,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6821,8 +7031,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6907,94 +7120,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13568000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4633000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13143000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6458000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12998000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3758000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7890000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3868000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9565000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4706000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13194000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3924000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11939000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7017000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10716000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3354000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7622000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3563000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>10445000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6213000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5934000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5161000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>11277000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5700000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>5975000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>5385000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>11892000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>4850000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7025,94 +7244,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4787000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4429000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4796000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4569000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3953000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3539000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4518000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3569000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2805000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2214000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3826000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2869000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1817000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1752000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2940000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2894000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2205000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3330000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2732000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2464000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1818000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3143000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2485000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2433000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3980000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-6320000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-10299000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7197,8 +7420,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7283,94 +7509,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5049000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4860000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4757000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4381000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4026000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4558000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4485000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3932000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3448000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5850000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3564000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2873000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1938000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1696000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2843000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2461000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2689000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1135000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3482000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16126000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2746000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1682000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3206000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1681000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1861000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2937000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-6634000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7401,94 +7633,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1534000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1538000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1514000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1538000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1543000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1525000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1536000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1524000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1529000</v>
       </c>
       <c r="P96" s="3">
         <v>-1529000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-1529000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1503000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1509000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1516000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1505000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1530000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1533000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1510000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1526000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1539000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1549000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-1534000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-1549000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7573,8 +7809,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7659,8 +7898,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7745,262 +7987,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5249000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1940000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11458000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4181000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6715000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5315000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4715000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6554000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6160000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5399000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4777000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3526000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8379000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>565000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7086000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4685000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-846000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8458000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3441000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4966000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2486000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-8459000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2785000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-4659000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-3972000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-7794000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>154000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>258000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-231000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-149000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>49000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-22000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-97000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>30000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-51000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>405000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-101000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>346000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-415000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>97000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-220000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-46000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>47000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-186000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-442000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>143000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>101000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-46000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>293000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>139000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-227000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3263000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1867000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2814000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2335000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2108000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2952000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1332000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6715000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5106000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5258000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2576000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1968000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5471000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>884000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-689000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>28000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1536000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1448000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6658000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>7712000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1136000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-287000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>557000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-72000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-309000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>928000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1737000</v>
       </c>
     </row>
